--- a/results/pixel_compare_f.xlsx
+++ b/results/pixel_compare_f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\tomato-clips\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4B5273-33CD-462B-A963-0C1235210320}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B9B431-6C1A-44A4-BED1-66143D2326D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B1255E6F-7794-4910-86C7-6E273B46B8FD}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -716,6 +716,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -736,6 +737,3355 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>480p</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'480p'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('480p'!$C$5,'480p'!$C$9,'480p'!$C$13,'480p'!$C$17,'480p'!$C$21,'480p'!$C$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('480p'!$K$5,'480p'!$K$9,'480p'!$K$13,'480p'!$K$17,'480p'!$K$21,'480p'!$K$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7499999999999983E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7499999999999956E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4000000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B8D5-46CC-8D55-47E66B4BD46E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'480p'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('480p'!$C$5,'480p'!$C$9,'480p'!$C$13,'480p'!$C$17,'480p'!$C$21,'480p'!$C$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('480p'!$L$5,'480p'!$L$9,'480p'!$L$13,'480p'!$L$17,'480p'!$L$21,'480p'!$L$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4999999999999971E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7499999999999983E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3249999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5000000000000015E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B8D5-46CC-8D55-47E66B4BD46E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'480p'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('480p'!$C$5,'480p'!$C$9,'480p'!$C$13,'480p'!$C$17,'480p'!$C$21,'480p'!$C$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('480p'!$M$5,'480p'!$M$9,'480p'!$M$13,'480p'!$M$17,'480p'!$M$21,'480p'!$M$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.4750000000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8249999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6500000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4999999999999946E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1499999999999969E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.100000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B8D5-46CC-8D55-47E66B4BD46E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="460822416"/>
+        <c:axId val="460826352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="460822416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460826352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="460826352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460822416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>720p</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'720p'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('480p'!$C$5,'480p'!$C$9,'480p'!$C$13,'480p'!$C$17,'480p'!$C$21,'480p'!$C$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('720p'!$K$5,'720p'!$K$9,'720p'!$K$13,'720p'!$K$17,'720p'!$K$21,'720p'!$K$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9249999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3750000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5749999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.85E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-801E-4721-A3B0-12D539226A22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'720p'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('480p'!$C$5,'480p'!$C$9,'480p'!$C$13,'480p'!$C$17,'480p'!$C$21,'480p'!$C$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('720p'!$L$5,'720p'!$L$9,'720p'!$L$13,'720p'!$L$17,'720p'!$L$21,'720p'!$L$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7499999999999981E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2499999999999972E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.749999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2499999999999992E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-801E-4721-A3B0-12D539226A22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'720p'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('480p'!$C$5,'480p'!$C$9,'480p'!$C$13,'480p'!$C$17,'480p'!$C$21,'480p'!$C$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('720p'!$M$5,'720p'!$M$9,'720p'!$M$13,'720p'!$M$17,'720p'!$M$21,'720p'!$M$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0250000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0499999999999954E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0000000000000071E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000071E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7499999999999791E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7499999999999895E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-801E-4721-A3B0-12D539226A22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="460822416"/>
+        <c:axId val="460826352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="460822416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460826352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="460826352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460822416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>1080p</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1080p'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('480p'!$C$5,'480p'!$C$9,'480p'!$C$13,'480p'!$C$17,'480p'!$C$21,'480p'!$C$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('1080p'!$K$5,'1080p'!$K$9,'1080p'!$K$13,'1080p'!$K$17,'1080p'!$K$21,'1080p'!$K$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5499999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7749999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3249999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F477-44BD-A7F7-D1E49625D15C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1080p'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('480p'!$C$5,'480p'!$C$9,'480p'!$C$13,'480p'!$C$17,'480p'!$C$21,'480p'!$C$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('1080p'!$L$5,'1080p'!$L$9,'1080p'!$L$13,'1080p'!$L$17,'1080p'!$L$21,'1080p'!$L$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.2499999999999969E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1749999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1249999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4999999999999971E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F477-44BD-A7F7-D1E49625D15C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1080p'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('480p'!$C$5,'480p'!$C$9,'480p'!$C$13,'480p'!$C$17,'480p'!$C$21,'480p'!$C$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('1080p'!$M$5,'1080p'!$M$9,'1080p'!$M$13,'1080p'!$M$17,'1080p'!$M$21,'1080p'!$M$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.5000000000000075E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000036E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7500000000000033E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5000000000000058E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2500000000000056E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4999999999999928E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F477-44BD-A7F7-D1E49625D15C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="460822416"/>
+        <c:axId val="460826352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="460822416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460826352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="460826352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460822416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>117122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>536222</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108655</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E26E667D-8AF2-4F05-90F6-19423943B7F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>14111</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5645</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AA4741-3602-49FD-8B31-DD2B67A9DC17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>77611</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>162278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>402166</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>153811</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC4F797-3468-4041-B7E8-8319FE42F012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1035,15 +4385,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D145ECE-65F4-41D8-B975-E37462A8DB9C}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
@@ -1072,7 +4422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>0</v>
       </c>
@@ -1104,7 +4454,7 @@
         <v>2.7000000000000024E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>0.1</v>
       </c>
@@ -1136,7 +4486,7 @@
         <v>1.8000000000000016E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>-0.1</v>
       </c>
@@ -1168,7 +4518,7 @@
         <v>3.400000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="21">
         <v>0</v>
       </c>
@@ -1199,8 +4549,20 @@
         <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="89">
+        <f>AVERAGE(H2:H5)</f>
+        <v>1.125E-2</v>
+      </c>
+      <c r="L5" s="89">
+        <f t="shared" ref="L5:M5" si="4">AVERAGE(I2:I5)</f>
+        <v>6.7500000000000017E-3</v>
+      </c>
+      <c r="M5" s="89">
+        <f t="shared" si="4"/>
+        <v>2.4750000000000022E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>0</v>
       </c>
@@ -1232,7 +4594,7 @@
         <v>1.100000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>0.1</v>
       </c>
@@ -1264,7 +4626,7 @@
         <v>1.100000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>-0.1</v>
       </c>
@@ -1296,7 +4658,7 @@
         <v>3.8999999999999924E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>0</v>
       </c>
@@ -1327,8 +4689,20 @@
         <f t="shared" si="3"/>
         <v>1.2000000000000011E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="89">
+        <f>AVERAGE(H6:H9)</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L9" s="89">
+        <f t="shared" ref="L9:M9" si="5">AVERAGE(I6:I9)</f>
+        <v>4.4999999999999971E-3</v>
+      </c>
+      <c r="M9" s="89">
+        <f t="shared" si="5"/>
+        <v>1.8249999999999988E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
         <v>0</v>
       </c>
@@ -1360,7 +4734,7 @@
         <v>1.100000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <v>0.1</v>
       </c>
@@ -1392,7 +4766,7 @@
         <v>9.000000000000008E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="18">
         <v>-0.1</v>
       </c>
@@ -1424,7 +4798,7 @@
         <v>3.7000000000000033E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
         <v>0</v>
       </c>
@@ -1456,8 +4830,20 @@
         <f t="shared" si="3"/>
         <v>9.000000000000008E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="89">
+        <f>AVERAGE(H10:H13)</f>
+        <v>9.7499999999999983E-3</v>
+      </c>
+      <c r="L13" s="89">
+        <f t="shared" ref="L13:M13" si="6">AVERAGE(I10:I13)</f>
+        <v>9.7499999999999983E-3</v>
+      </c>
+      <c r="M13" s="89">
+        <f t="shared" si="6"/>
+        <v>1.6500000000000015E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>0</v>
       </c>
@@ -1489,7 +4875,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>0.1</v>
       </c>
@@ -1521,7 +4907,7 @@
         <v>1.100000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>-0.1</v>
       </c>
@@ -1553,7 +4939,7 @@
         <v>1.9999999999999962E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>0</v>
       </c>
@@ -1584,8 +4970,20 @@
         <f t="shared" si="3"/>
         <v>2.0000000000000018E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="89">
+        <f>AVERAGE(H14:H17)</f>
+        <v>5.7499999999999956E-3</v>
+      </c>
+      <c r="L17" s="89">
+        <f t="shared" ref="L17:M17" si="7">AVERAGE(I14:I17)</f>
+        <v>1.3249999999999998E-2</v>
+      </c>
+      <c r="M17" s="89">
+        <f t="shared" si="7"/>
+        <v>9.4999999999999946E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="24">
         <v>0</v>
       </c>
@@ -1617,7 +5015,7 @@
         <v>1.2999999999999956E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="18">
         <v>0.05</v>
       </c>
@@ -1649,7 +5047,7 @@
         <v>7.9999999999999516E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="18">
         <v>-0.05</v>
       </c>
@@ -1681,7 +5079,7 @@
         <v>2.3999999999999966E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
         <v>0</v>
       </c>
@@ -1712,8 +5110,20 @@
         <f t="shared" si="3"/>
         <v>1.0000000000000009E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="89">
+        <f>AVERAGE(H18:H21)</f>
+        <v>1.175E-2</v>
+      </c>
+      <c r="L21" s="89">
+        <f t="shared" ref="L21:M21" si="8">AVERAGE(I18:I21)</f>
+        <v>9.5000000000000015E-3</v>
+      </c>
+      <c r="M21" s="89">
+        <f t="shared" si="8"/>
+        <v>1.1499999999999969E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>0</v>
       </c>
@@ -1745,7 +5155,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>0.05</v>
       </c>
@@ -1777,7 +5187,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>-0.05</v>
       </c>
@@ -1809,7 +5219,7 @@
         <v>2.1000000000000019E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>0</v>
       </c>
@@ -1840,18 +5250,30 @@
         <f t="shared" si="3"/>
         <v>1.2000000000000011E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="89">
+        <f>AVERAGE(H22:H25)</f>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="L25" s="89">
+        <f t="shared" ref="L25:M25" si="9">AVERAGE(I22:I25)</f>
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="M25" s="89">
+        <f t="shared" si="9"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H26" s="86">
         <f>AVERAGE(H2:H25)</f>
         <v>1.1750000000000003E-2</v>
       </c>
       <c r="I26" s="87">
-        <f t="shared" ref="I26:J26" si="4">AVERAGE(I2:I25)</f>
+        <f t="shared" ref="I26:J26" si="10">AVERAGE(I2:I25)</f>
         <v>8.7083333333333336E-3</v>
       </c>
       <c r="J26" s="88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.525E-2</v>
       </c>
     </row>
@@ -1894,20 +5316,19 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A606EB7-5EDB-47E4-8962-92DD3D3597BA}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
@@ -1936,7 +5357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>0</v>
       </c>
@@ -1968,7 +5389,7 @@
         <v>2.300000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>0.1</v>
       </c>
@@ -2000,7 +5421,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>-0.1</v>
       </c>
@@ -2032,7 +5453,7 @@
         <v>2.4000000000000021E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="21">
         <v>0</v>
       </c>
@@ -2063,8 +5484,20 @@
         <f t="shared" si="0"/>
         <v>3.2000000000000028E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="89">
+        <f>AVERAGE(H2:H5)</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L5" s="89">
+        <f t="shared" ref="L5:M5" si="2">AVERAGE(I2:I5)</f>
+        <v>2.7499999999999981E-3</v>
+      </c>
+      <c r="M5" s="89">
+        <f t="shared" si="2"/>
+        <v>2.0250000000000018E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>0</v>
       </c>
@@ -2096,7 +5529,7 @@
         <v>1.2999999999999901E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>0.1</v>
       </c>
@@ -2128,7 +5561,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>-0.1</v>
       </c>
@@ -2160,7 +5593,7 @@
         <v>1.2000000000000011E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>0</v>
       </c>
@@ -2191,8 +5624,20 @@
         <f t="shared" si="0"/>
         <v>1.4999999999999902E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="89">
+        <f>AVERAGE(H6:H9)</f>
+        <v>2.9249999999999998E-2</v>
+      </c>
+      <c r="L9" s="89">
+        <f t="shared" ref="L9:M9" si="3">AVERAGE(I6:I9)</f>
+        <v>2.2500000000000003E-3</v>
+      </c>
+      <c r="M9" s="89">
+        <f t="shared" si="3"/>
+        <v>1.0499999999999954E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="24">
         <v>0</v>
       </c>
@@ -2224,7 +5669,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <v>0.1</v>
       </c>
@@ -2256,7 +5701,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="18">
         <v>-0.1</v>
       </c>
@@ -2288,7 +5733,7 @@
         <v>1.2000000000000011E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
         <v>0</v>
       </c>
@@ -2319,8 +5764,20 @@
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="89">
+        <f>AVERAGE(H10:H13)</f>
+        <v>3.3750000000000002E-2</v>
+      </c>
+      <c r="L13" s="89">
+        <f t="shared" ref="L13:M13" si="4">AVERAGE(I10:I13)</f>
+        <v>1.2499999999999972E-3</v>
+      </c>
+      <c r="M13" s="89">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>0</v>
       </c>
@@ -2352,7 +5809,7 @@
         <v>6.0000000000000053E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>0.1</v>
       </c>
@@ -2384,7 +5841,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>-0.1</v>
       </c>
@@ -2416,7 +5873,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>0</v>
       </c>
@@ -2447,8 +5904,20 @@
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="89">
+        <f>AVERAGE(H14:H17)</f>
+        <v>2.5749999999999995E-2</v>
+      </c>
+      <c r="L17" s="89">
+        <f t="shared" ref="L17:M17" si="5">AVERAGE(I14:I17)</f>
+        <v>1.749999999999997E-3</v>
+      </c>
+      <c r="M17" s="89">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="24">
         <v>0</v>
       </c>
@@ -2480,7 +5949,7 @@
         <v>8.9999999999999525E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="18">
         <v>0.05</v>
       </c>
@@ -2512,7 +5981,7 @@
         <v>4.0000000000000036E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="18">
         <v>-0.05</v>
       </c>
@@ -2544,7 +6013,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
         <v>0</v>
       </c>
@@ -2575,8 +6044,20 @@
         <f t="shared" si="1"/>
         <v>1.2999999999999956E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="89">
+        <f>AVERAGE(H18:H21)</f>
+        <v>1.95E-2</v>
+      </c>
+      <c r="L21" s="89">
+        <f t="shared" ref="L21:M21" si="6">AVERAGE(I18:I21)</f>
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="M21" s="89">
+        <f t="shared" si="6"/>
+        <v>7.7499999999999791E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>0</v>
       </c>
@@ -2608,7 +6089,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>0.05</v>
       </c>
@@ -2640,7 +6121,7 @@
         <v>6.9999999999999507E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>-0.05</v>
       </c>
@@ -2672,7 +6153,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>0</v>
       </c>
@@ -2703,8 +6184,20 @@
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="89">
+        <f>AVERAGE(H22:H25)</f>
+        <v>3.85E-2</v>
+      </c>
+      <c r="L25" s="89">
+        <f t="shared" ref="L25:M25" si="7">AVERAGE(I22:I25)</f>
+        <v>1.2499999999999992E-3</v>
+      </c>
+      <c r="M25" s="89">
+        <f t="shared" si="7"/>
+        <v>3.7499999999999895E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -2713,11 +6206,11 @@
         <v>3.0791666666666672E-2</v>
       </c>
       <c r="I26" s="84">
-        <f t="shared" ref="I26:J26" si="2">AVERAGE(I2:I25)</f>
+        <f t="shared" ref="I26:J26" si="8">AVERAGE(I2:I25)</f>
         <v>2.249999999999999E-3</v>
       </c>
       <c r="J26" s="85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9.7083333333333258E-3</v>
       </c>
     </row>
@@ -2748,20 +6241,19 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE175F6-10E1-4E00-B979-EE052486A63E}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
@@ -2790,7 +6282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="31">
         <v>0</v>
       </c>
@@ -2804,7 +6296,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="E2" s="34">
-        <v>-3.5999999999999997E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="F2" s="35">
         <v>0.58799999999999997</v>
@@ -2815,14 +6307,14 @@
       </c>
       <c r="I2" s="69">
         <f t="shared" ref="I2:J17" si="0">ABS(E2-B2)</f>
-        <v>3.5999999999999997E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="J2" s="70">
         <f t="shared" si="0"/>
         <v>1.2000000000000011E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="36">
         <v>0.1</v>
       </c>
@@ -2836,7 +6328,7 @@
         <v>0.107</v>
       </c>
       <c r="E3" s="37">
-        <v>-3.9E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="F3" s="38">
         <v>0.59899999999999998</v>
@@ -2847,14 +6339,14 @@
       </c>
       <c r="I3" s="72">
         <f t="shared" si="0"/>
-        <v>3.9E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="J3" s="73">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="36">
         <v>-0.1</v>
       </c>
@@ -2868,7 +6360,7 @@
         <v>-0.107</v>
       </c>
       <c r="E4" s="40">
-        <v>-2.1999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F4" s="41">
         <v>0.60499999999999998</v>
@@ -2879,14 +6371,14 @@
       </c>
       <c r="I4" s="72">
         <f t="shared" si="0"/>
-        <v>2.1999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J4" s="73">
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="42">
         <v>0</v>
       </c>
@@ -2900,7 +6392,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="E5" s="45">
-        <v>-0.13</v>
+        <v>-0.105</v>
       </c>
       <c r="F5" s="46">
         <v>0.61599999999999999</v>
@@ -2911,14 +6403,26 @@
       </c>
       <c r="I5" s="72">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>4.9999999999999906E-3</v>
       </c>
       <c r="J5" s="73">
         <f t="shared" si="0"/>
         <v>1.6000000000000014E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="89">
+        <f>AVERAGE(H2:H5)</f>
+        <v>1.5499999999999996E-2</v>
+      </c>
+      <c r="L5" s="89">
+        <f t="shared" ref="L5:M5" si="2">AVERAGE(I2:I5)</f>
+        <v>8.2499999999999969E-3</v>
+      </c>
+      <c r="M5" s="89">
+        <f t="shared" si="2"/>
+        <v>8.5000000000000075E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="47">
         <v>0</v>
       </c>
@@ -2950,7 +6454,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="52">
         <v>0.1</v>
       </c>
@@ -2964,7 +6468,7 @@
         <v>0.104</v>
       </c>
       <c r="E7" s="53">
-        <v>-3.3000000000000002E-2</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="F7" s="54">
         <v>0.54700000000000004</v>
@@ -2975,14 +6479,14 @@
       </c>
       <c r="I7" s="72">
         <f t="shared" si="0"/>
-        <v>3.3000000000000002E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J7" s="73">
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="52">
         <v>-0.1</v>
       </c>
@@ -2996,7 +6500,7 @@
         <v>-0.10100000000000001</v>
       </c>
       <c r="E8" s="56">
-        <v>-3.5999999999999997E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="F8" s="57">
         <v>0.56000000000000005</v>
@@ -3007,14 +6511,14 @@
       </c>
       <c r="I8" s="72">
         <f t="shared" si="0"/>
-        <v>3.5999999999999997E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="J8" s="73">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="58">
         <v>0</v>
       </c>
@@ -3028,7 +6532,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="E9" s="61">
-        <v>-0.129</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="F9" s="62">
         <v>0.55200000000000005</v>
@@ -3039,14 +6543,26 @@
       </c>
       <c r="I9" s="72">
         <f t="shared" si="0"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.9999999999999888E-3</v>
       </c>
       <c r="J9" s="73">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="89">
+        <f>AVERAGE(H6:H9)</f>
+        <v>2.0749999999999998E-2</v>
+      </c>
+      <c r="L9" s="89">
+        <f t="shared" ref="L9:M9" si="3">AVERAGE(I6:I9)</f>
+        <v>1.1749999999999997E-2</v>
+      </c>
+      <c r="M9" s="89">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="63">
         <v>0</v>
       </c>
@@ -3078,7 +6594,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="36">
         <v>0.1</v>
       </c>
@@ -3110,7 +6626,7 @@
         <v>6.0000000000000053E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="36">
         <v>-0.1</v>
       </c>
@@ -3142,7 +6658,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="42">
         <v>0</v>
       </c>
@@ -3173,8 +6689,20 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="89">
+        <f>AVERAGE(H10:H13)</f>
+        <v>1.7749999999999995E-2</v>
+      </c>
+      <c r="L13" s="89">
+        <f t="shared" ref="L13:M13" si="4">AVERAGE(I10:I13)</f>
+        <v>1.1249999999999996E-2</v>
+      </c>
+      <c r="M13" s="89">
+        <f t="shared" si="4"/>
+        <v>3.7500000000000033E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="47">
         <v>0</v>
       </c>
@@ -3206,7 +6734,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="52">
         <v>0.1</v>
       </c>
@@ -3238,7 +6766,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="52">
         <v>-0.1</v>
       </c>
@@ -3270,7 +6798,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="58">
         <v>0</v>
       </c>
@@ -3301,8 +6829,20 @@
         <f t="shared" si="0"/>
         <v>9.000000000000008E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="89">
+        <f>AVERAGE(H14:H17)</f>
+        <v>1.4749999999999999E-2</v>
+      </c>
+      <c r="L17" s="89">
+        <f t="shared" ref="L17:M17" si="5">AVERAGE(I14:I17)</f>
+        <v>8.4999999999999971E-3</v>
+      </c>
+      <c r="M17" s="89">
+        <f t="shared" si="5"/>
+        <v>6.5000000000000058E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="63">
         <v>0</v>
       </c>
@@ -3313,7 +6853,7 @@
         <v>0.4</v>
       </c>
       <c r="D18" s="33">
-        <v>2.3E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E18" s="34">
         <v>-6.0000000000000001E-3</v>
@@ -3323,7 +6863,7 @@
       </c>
       <c r="H18" s="71">
         <f t="shared" si="1"/>
-        <v>2.3E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I18" s="72">
         <f t="shared" si="1"/>
@@ -3334,7 +6874,7 @@
         <v>9.000000000000008E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>0.05</v>
       </c>
@@ -3345,7 +6885,7 @@
         <v>0.4</v>
       </c>
       <c r="D19" s="36">
-        <v>7.8E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E19" s="37">
         <v>-8.9999999999999993E-3</v>
@@ -3355,7 +6895,7 @@
       </c>
       <c r="H19" s="71">
         <f t="shared" si="1"/>
-        <v>2.7999999999999997E-2</v>
+        <v>1.2000000000000004E-2</v>
       </c>
       <c r="I19" s="72">
         <f t="shared" si="1"/>
@@ -3366,7 +6906,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="36">
         <v>-0.05</v>
       </c>
@@ -3377,7 +6917,7 @@
         <v>0.4</v>
       </c>
       <c r="D20" s="39">
-        <v>-3.1E-2</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="E20" s="40">
         <v>-8.0000000000000002E-3</v>
@@ -3387,7 +6927,7 @@
       </c>
       <c r="H20" s="71">
         <f t="shared" si="1"/>
-        <v>1.9000000000000003E-2</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="I20" s="72">
         <f t="shared" si="1"/>
@@ -3398,7 +6938,7 @@
         <v>4.0000000000000036E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="42">
         <v>0</v>
       </c>
@@ -3409,7 +6949,7 @@
         <v>0.4</v>
       </c>
       <c r="D21" s="44">
-        <v>3.7999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E21" s="45">
         <v>-4.8000000000000001E-2</v>
@@ -3419,7 +6959,7 @@
       </c>
       <c r="H21" s="71">
         <f t="shared" si="1"/>
-        <v>3.7999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I21" s="72">
         <f t="shared" si="1"/>
@@ -3429,8 +6969,20 @@
         <f t="shared" si="1"/>
         <v>4.0000000000000036E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="89">
+        <f>AVERAGE(H18:H21)</f>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="L21" s="89">
+        <f t="shared" ref="L21:M21" si="6">AVERAGE(I18:I21)</f>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="M21" s="89">
+        <f t="shared" si="6"/>
+        <v>6.2500000000000056E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="47">
         <v>0</v>
       </c>
@@ -3462,7 +7014,7 @@
         <v>7.9999999999999516E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="52">
         <v>0.05</v>
       </c>
@@ -3494,7 +7046,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="52">
         <v>-0.05</v>
       </c>
@@ -3526,7 +7078,7 @@
         <v>1.100000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="65">
         <v>0</v>
       </c>
@@ -3537,7 +7089,7 @@
         <v>0.35</v>
       </c>
       <c r="D25" s="65">
-        <v>2.4E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E25" s="66">
         <v>-0.05</v>
@@ -3547,7 +7099,7 @@
       </c>
       <c r="H25" s="71">
         <f t="shared" si="1"/>
-        <v>2.4E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I25" s="72">
         <f t="shared" si="1"/>
@@ -3557,18 +7109,30 @@
         <f t="shared" si="1"/>
         <v>1.0000000000000009E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="89">
+        <f>AVERAGE(H22:H25)</f>
+        <v>1.3249999999999998E-2</v>
+      </c>
+      <c r="L25" s="89">
+        <f t="shared" ref="L25:M25" si="7">AVERAGE(I22:I25)</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M25" s="89">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999928E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H26" s="83">
         <f>AVERAGE(H2:H25)</f>
-        <v>1.9E-2</v>
+        <v>1.5416666666666667E-2</v>
       </c>
       <c r="I26" s="84">
-        <f t="shared" ref="I26:J26" si="2">AVERAGE(I2:I25)</f>
-        <v>1.516666666666667E-2</v>
+        <f t="shared" ref="I26:J26" si="8">AVERAGE(I2:I25)</f>
+        <v>8.083333333333333E-3</v>
       </c>
       <c r="J26" s="85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6.0833333333333364E-3</v>
       </c>
     </row>
@@ -3599,6 +7163,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/results/pixel_compare_f.xlsx
+++ b/results/pixel_compare_f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\tomato-clips\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B9B431-6C1A-44A4-BED1-66143D2326D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B37DE3-8CF7-4983-912D-73B001354761}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B1255E6F-7794-4910-86C7-6E273B46B8FD}"/>
   </bookViews>
@@ -547,27 +547,9 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,21 +560,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -621,24 +588,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,24 +620,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
@@ -717,6 +648,75 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -753,64 +753,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="hu-HU"/>
-              <a:t>480p</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="hu-HU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10000146951114583"/>
+          <c:y val="4.3172364247843362E-2"/>
+          <c:w val="0.88081248309890514"/>
+          <c:h val="0.83493244828098045"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -846,22 +801,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,22 +828,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7499999999999956E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7499999999999983E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.7499999999999983E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.7499999999999956E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4000000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,7 +870,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -930,22 +885,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,22 +912,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5000000000000015E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3249999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7499999999999983E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4999999999999971E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>6.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.4999999999999971E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.7499999999999983E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3249999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5000000000000015E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.5000000000000006E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,7 +954,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1014,22 +969,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,22 +996,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1.100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1499999999999969E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4999999999999946E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6500000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8249999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.4750000000000022E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8249999999999988E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6500000000000015E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.4999999999999946E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1499999999999969E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.100000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1087,6 +1042,55 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>valós z érték [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1109,14 +1113,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1135,6 +1136,7 @@
         <c:axId val="460826352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.5000000000000005E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1152,6 +1154,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>eltérés a valóságtól [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0232467049645992E-2"/>
+              <c:y val="0.29489988204086309"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1168,14 +1227,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1197,6 +1253,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0035253160375989E-3"/>
+          <c:y val="0.93810941304847884"/>
+          <c:w val="0.22203942602268018"/>
+          <c:h val="5.9012429334998284E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1210,14 +1276,617 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr algn="ctr">
+        <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10748211966752957"/>
+          <c:y val="3.3617586518084386E-2"/>
+          <c:w val="0.8733689482452478"/>
+          <c:h val="0.84375899205600802"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'720p'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('720p'!$C$5,'720p'!$C$9,'720p'!$C$13,'720p'!$C$17,'720p'!$C$21,'720p'!$C$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('720p'!$K$5,'720p'!$K$9,'720p'!$K$13,'720p'!$K$17,'720p'!$K$21,'720p'!$K$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8000000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-801E-4721-A3B0-12D539226A22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'720p'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('720p'!$C$5,'720p'!$C$9,'720p'!$C$13,'720p'!$C$17,'720p'!$C$21,'720p'!$C$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('720p'!$L$5,'720p'!$L$9,'720p'!$L$13,'720p'!$L$17,'720p'!$L$21,'720p'!$L$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2499999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.749999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2499999999999972E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7499999999999981E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-801E-4721-A3B0-12D539226A22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'720p'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('720p'!$C$5,'720p'!$C$9,'720p'!$C$13,'720p'!$C$17,'720p'!$C$21,'720p'!$C$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('720p'!$M$5,'720p'!$M$9,'720p'!$M$13,'720p'!$M$17,'720p'!$M$21,'720p'!$M$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7499999999999895E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7499999999999791E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0000000000000071E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000071E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0499999999999954E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0250000000000018E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-801E-4721-A3B0-12D539226A22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="460822416"/>
+        <c:axId val="460826352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="460822416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>valós z érték</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" baseline="0"/>
+                  <a:t> [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460826352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="460826352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5000000000000005E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>eltérés a valóságtól [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2185684055505311E-2"/>
+              <c:y val="0.3007227444233761"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460822416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.7615857892718284E-3"/>
+          <c:y val="0.94173609632386146"/>
+          <c:w val="0.20414817682154046"/>
+          <c:h val="5.5402218819746524E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -1257,7 +1926,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="hu-HU"/>
     </a:p>
@@ -1270,7 +1946,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="hu-HU"/>
@@ -1284,64 +1960,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="hu-HU"/>
-              <a:t>720p</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="hu-HU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10769041666123039"/>
+          <c:y val="3.3778688043934281E-2"/>
+          <c:w val="0.87312354121874625"/>
+          <c:h val="0.84301025702214216"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1351,7 +1982,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'720p'!$H$1</c:f>
+              <c:f>'1080p'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1372,61 +2003,61 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>('480p'!$C$5,'480p'!$C$9,'480p'!$C$13,'480p'!$C$17,'480p'!$C$21,'480p'!$C$25)</c:f>
+              <c:f>('1080p'!$C$5,'1080p'!$C$9,'1080p'!$C$13,'1080p'!$C$17,'1080p'!$C$21,'1080p'!$C$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('720p'!$K$5,'720p'!$K$9,'720p'!$K$13,'720p'!$K$17,'720p'!$K$21,'720p'!$K$25)</c:f>
+              <c:f>('1080p'!$K$5,'1080p'!$K$9,'1080p'!$K$13,'1080p'!$K$17,'1080p'!$K$21,'1080p'!$K$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.7999999999999999E-2</c:v>
+                  <c:v>1.3249999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9249999999999998E-2</c:v>
+                  <c:v>1.0500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3750000000000002E-2</c:v>
+                  <c:v>1.4749999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5749999999999995E-2</c:v>
+                  <c:v>1.7749999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.95E-2</c:v>
+                  <c:v>2.0749999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.85E-2</c:v>
+                  <c:v>1.5499999999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-801E-4721-A3B0-12D539226A22}"/>
+              <c16:uniqueId val="{00000000-F477-44BD-A7F7-D1E49625D15C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1435,7 +2066,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'720p'!$I$1</c:f>
+              <c:f>'1080p'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1446,7 +2077,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1456,61 +2087,61 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>('480p'!$C$5,'480p'!$C$9,'480p'!$C$13,'480p'!$C$17,'480p'!$C$21,'480p'!$C$25)</c:f>
+              <c:f>('1080p'!$C$5,'1080p'!$C$9,'1080p'!$C$13,'1080p'!$C$17,'1080p'!$C$21,'1080p'!$C$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('720p'!$L$5,'720p'!$L$9,'720p'!$L$13,'720p'!$L$17,'720p'!$L$21,'720p'!$L$25)</c:f>
+              <c:f>('1080p'!$L$5,'1080p'!$L$9,'1080p'!$L$13,'1080p'!$L$17,'1080p'!$L$21,'1080p'!$L$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.7499999999999981E-3</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2500000000000003E-3</c:v>
+                  <c:v>6.2500000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2499999999999972E-3</c:v>
+                  <c:v>8.4999999999999971E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.749999999999997E-3</c:v>
+                  <c:v>1.1249999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2500000000000003E-3</c:v>
+                  <c:v>1.1749999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2499999999999992E-3</c:v>
+                  <c:v>8.2499999999999969E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-801E-4721-A3B0-12D539226A22}"/>
+              <c16:uniqueId val="{00000001-F477-44BD-A7F7-D1E49625D15C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1519,7 +2150,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'720p'!$J$1</c:f>
+              <c:f>'1080p'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1530,7 +2161,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1540,61 +2171,61 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>('480p'!$C$5,'480p'!$C$9,'480p'!$C$13,'480p'!$C$17,'480p'!$C$21,'480p'!$C$25)</c:f>
+              <c:f>('1080p'!$C$5,'1080p'!$C$9,'1080p'!$C$13,'1080p'!$C$17,'1080p'!$C$21,'1080p'!$C$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('720p'!$M$5,'720p'!$M$9,'720p'!$M$13,'720p'!$M$17,'720p'!$M$21,'720p'!$M$25)</c:f>
+              <c:f>('1080p'!$M$5,'1080p'!$M$9,'1080p'!$M$13,'1080p'!$M$17,'1080p'!$M$21,'1080p'!$M$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.0250000000000018E-2</c:v>
+                  <c:v>7.4999999999999928E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0499999999999954E-2</c:v>
+                  <c:v>6.2500000000000056E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0000000000000071E-3</c:v>
+                  <c:v>6.5000000000000058E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0000000000000071E-3</c:v>
+                  <c:v>3.7500000000000033E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7499999999999791E-3</c:v>
+                  <c:v>4.0000000000000036E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7499999999999895E-3</c:v>
+                  <c:v>8.5000000000000075E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-801E-4721-A3B0-12D539226A22}"/>
+              <c16:uniqueId val="{00000002-F477-44BD-A7F7-D1E49625D15C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1618,6 +2249,55 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>valós z érték [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1640,14 +2320,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1683,6 +2360,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>eltérés a valóságtól [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2209299530923931E-2"/>
+              <c:y val="0.32626468292844174"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1699,14 +2433,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1728,6 +2459,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.0518812827592735E-2"/>
+          <c:y val="0.94145688520978765"/>
+          <c:w val="0.20454380961732979"/>
+          <c:h val="5.56677162248779E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1741,14 +2482,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -1788,538 +2526,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="hu-HU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="hu-HU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="hu-HU"/>
-              <a:t>1080p</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="hu-HU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'1080p'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>err x</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>('480p'!$C$5,'480p'!$C$9,'480p'!$C$13,'480p'!$C$17,'480p'!$C$21,'480p'!$C$25)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>('1080p'!$K$5,'1080p'!$K$9,'1080p'!$K$13,'1080p'!$K$17,'1080p'!$K$21,'1080p'!$K$25)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.5499999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7749999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3249999999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F477-44BD-A7F7-D1E49625D15C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'1080p'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>err y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>('480p'!$C$5,'480p'!$C$9,'480p'!$C$13,'480p'!$C$17,'480p'!$C$21,'480p'!$C$25)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>('1080p'!$L$5,'1080p'!$L$9,'1080p'!$L$13,'1080p'!$L$17,'1080p'!$L$21,'1080p'!$L$25)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8.2499999999999969E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1749999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1249999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.4999999999999971E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F477-44BD-A7F7-D1E49625D15C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'1080p'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>err z</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>('480p'!$C$5,'480p'!$C$9,'480p'!$C$13,'480p'!$C$17,'480p'!$C$21,'480p'!$C$25)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>('1080p'!$M$5,'1080p'!$M$9,'1080p'!$M$13,'1080p'!$M$17,'1080p'!$M$21,'1080p'!$M$25)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8.5000000000000075E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0000000000000036E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7500000000000033E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.5000000000000058E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2500000000000056E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.4999999999999928E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F477-44BD-A7F7-D1E49625D15C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="460822416"/>
-        <c:axId val="460826352"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="460822416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="hu-HU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="460826352"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="460826352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="hu-HU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="460822416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="hu-HU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="hu-HU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="hu-HU"/>
     </a:p>
@@ -3965,16 +4179,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>211667</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>117122</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7055</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>536222</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>108655</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>7055</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4007,15 +4221,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>296333</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>14112</xdr:rowOff>
+      <xdr:colOff>599721</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>14111</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>5645</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>7056</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4050,15 +4264,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>77611</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>162278</xdr:rowOff>
+      <xdr:colOff>606776</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>402166</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>153811</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7055</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4387,897 +4601,900 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D145ECE-65F4-41D8-B975-E37462A8DB9C}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="A2" s="72">
+        <v>0</v>
+      </c>
+      <c r="B2" s="78">
+        <v>0</v>
+      </c>
+      <c r="C2" s="78">
+        <v>0.35</v>
+      </c>
+      <c r="D2" s="72">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="78">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F2" s="84">
+        <v>0.36</v>
+      </c>
+      <c r="H2" s="42">
+        <f>ABS(D2-A2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I2" s="43">
+        <f>ABS(E2-B2)</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J2" s="44">
+        <f>ABS(F2-C2)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="D3" s="3">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="H3" s="45">
+        <f>ABS(D3-A3)</f>
+        <v>1.2999999999999998E-2</v>
+      </c>
+      <c r="I3" s="46">
+        <f>ABS(E3-B3)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J3" s="47">
+        <f>ABS(F3-C3)</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-2E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.371</v>
+      </c>
+      <c r="H4" s="45">
+        <f>ABS(D4-A4)</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="I4" s="46">
+        <f>ABS(E4-B4)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="J4" s="47">
+        <f>ABS(F4-C4)</f>
+        <v>2.1000000000000019E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="74">
+        <v>0</v>
+      </c>
+      <c r="B5" s="80">
+        <v>-0.05</v>
+      </c>
+      <c r="C5" s="80">
+        <v>0.35</v>
+      </c>
+      <c r="D5" s="74">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E5" s="80">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="F5" s="86">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="H5" s="45">
+        <f>ABS(D5-A5)</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I5" s="46">
+        <f>ABS(E5-B5)</f>
+        <v>1.3000000000000005E-2</v>
+      </c>
+      <c r="J5" s="47">
+        <f>ABS(F5-C5)</f>
+        <v>1.2000000000000011E-2</v>
+      </c>
+      <c r="K5" s="54">
+        <f>AVERAGE(H2:H5)</f>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="L5" s="54">
+        <f t="shared" ref="L5:M5" si="0">AVERAGE(I2:I5)</f>
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="M5" s="54">
+        <f t="shared" si="0"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="73">
+        <v>0</v>
+      </c>
+      <c r="B6" s="79">
+        <v>0</v>
+      </c>
+      <c r="C6" s="79">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="73">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E6" s="79">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F6" s="85">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="H6" s="45">
+        <f>ABS(D6-A6)</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I6" s="46">
+        <f>ABS(E6-B6)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J6" s="47">
+        <f>ABS(F6-C6)</f>
+        <v>1.2999999999999956E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="H7" s="45">
+        <f>ABS(D7-A7)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I7" s="46">
+        <f>ABS(E7-B7)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J7" s="47">
+        <f>ABS(F7-C7)</f>
+        <v>7.9999999999999516E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>-0.05</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="H8" s="45">
+        <f>ABS(D8-A8)</f>
+        <v>8.9999999999999941E-3</v>
+      </c>
+      <c r="I8" s="46">
+        <f>ABS(E8-B8)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="J8" s="47">
+        <f>ABS(F8-C8)</f>
+        <v>2.3999999999999966E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="77">
+        <v>0</v>
+      </c>
+      <c r="B9" s="83">
+        <v>-0.05</v>
+      </c>
+      <c r="C9" s="83">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="77">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E9" s="83">
+        <v>-0.03</v>
+      </c>
+      <c r="F9" s="89">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="H9" s="45">
+        <f>ABS(D9-A9)</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I9" s="46">
+        <f>ABS(E9-B9)</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="J9" s="47">
+        <f>ABS(F9-C9)</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="K9" s="54">
+        <f>AVERAGE(H6:H9)</f>
+        <v>1.175E-2</v>
+      </c>
+      <c r="L9" s="54">
+        <f t="shared" ref="L9:M9" si="1">AVERAGE(I6:I9)</f>
+        <v>9.5000000000000015E-3</v>
+      </c>
+      <c r="M9" s="54">
+        <f t="shared" si="1"/>
+        <v>1.1499999999999969E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="76">
+        <v>0</v>
+      </c>
+      <c r="B10" s="82">
+        <v>0</v>
+      </c>
+      <c r="C10" s="82">
+        <v>0.45</v>
+      </c>
+      <c r="D10" s="76">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="82">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="F10" s="88">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="H10" s="45">
+        <f>ABS(D10-A10)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I10" s="46">
+        <f>ABS(E10-B10)</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J10" s="47">
+        <f>ABS(F10-C10)</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.439</v>
+      </c>
+      <c r="H11" s="45">
+        <f>ABS(D11-A11)</f>
+        <v>2.9999999999999888E-3</v>
+      </c>
+      <c r="I11" s="46">
+        <f>ABS(E11-B11)</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J11" s="47">
+        <f>ABS(F11-C11)</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-0.107</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="H12" s="45">
+        <f>ABS(D12-A12)</f>
+        <v>6.9999999999999923E-3</v>
+      </c>
+      <c r="I12" s="46">
+        <f>ABS(E12-B12)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J12" s="47">
+        <f>ABS(F12-C12)</f>
+        <v>1.9999999999999962E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="74">
+        <v>0</v>
+      </c>
+      <c r="B13" s="80">
+        <v>-0.1</v>
+      </c>
+      <c r="C13" s="80">
+        <v>0.45</v>
+      </c>
+      <c r="D13" s="74">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="E13" s="80">
+        <v>-0.109</v>
+      </c>
+      <c r="F13" s="86">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H13" s="45">
+        <f>ABS(D13-A13)</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I13" s="46">
+        <f>ABS(E13-B13)</f>
+        <v>8.9999999999999941E-3</v>
+      </c>
+      <c r="J13" s="47">
+        <f>ABS(F13-C13)</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="K13" s="54">
+        <f>AVERAGE(H10:H13)</f>
+        <v>5.7499999999999956E-3</v>
+      </c>
+      <c r="L13" s="54">
+        <f t="shared" ref="L13:M13" si="2">AVERAGE(I10:I13)</f>
+        <v>1.3249999999999998E-2</v>
+      </c>
+      <c r="M13" s="54">
+        <f t="shared" si="2"/>
+        <v>9.4999999999999946E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="73">
+        <v>0</v>
+      </c>
+      <c r="B14" s="79">
+        <v>0</v>
+      </c>
+      <c r="C14" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="73">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E14" s="79">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="F14" s="85">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="H14" s="45">
+        <f>ABS(D14-A14)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I14" s="46">
+        <f>ABS(E14-B14)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J14" s="47">
+        <f>ABS(F14-C14)</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.104</v>
+      </c>
+      <c r="E15" s="7">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="H15" s="45">
+        <f>ABS(D15-A15)</f>
+        <v>3.9999999999999897E-3</v>
+      </c>
+      <c r="I15" s="46">
+        <f>ABS(E15-B15)</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J15" s="47">
+        <f>ABS(F15-C15)</f>
+        <v>9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="E16" s="7">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="H16" s="45">
+        <f>ABS(D16-A16)</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I16" s="46">
+        <f>ABS(E16-B16)</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="J16" s="47">
+        <f>ABS(F16-C16)</f>
+        <v>3.7000000000000033E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="77">
+        <v>0</v>
+      </c>
+      <c r="B17" s="83">
+        <v>-0.1</v>
+      </c>
+      <c r="C17" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="77">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E17" s="83">
+        <v>-0.107</v>
+      </c>
+      <c r="F17" s="89">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="45">
+        <f>ABS(D17-A17)</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I17" s="46">
+        <f>ABS(E17-B17)</f>
+        <v>6.9999999999999923E-3</v>
+      </c>
+      <c r="J17" s="47">
+        <f>ABS(F17-C17)</f>
+        <v>9.000000000000008E-3</v>
+      </c>
+      <c r="K17" s="54">
+        <f>AVERAGE(H14:H17)</f>
+        <v>9.7499999999999983E-3</v>
+      </c>
+      <c r="L17" s="54">
+        <f t="shared" ref="L17:M17" si="3">AVERAGE(I14:I17)</f>
+        <v>9.7499999999999983E-3</v>
+      </c>
+      <c r="M17" s="54">
+        <f t="shared" si="3"/>
+        <v>1.6500000000000015E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="76">
+        <v>0</v>
+      </c>
+      <c r="B18" s="82">
+        <v>0</v>
+      </c>
+      <c r="C18" s="82">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D18" s="76">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E18" s="82">
+        <v>-1E-3</v>
+      </c>
+      <c r="F18" s="88">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H18" s="45">
+        <f>ABS(D18-A18)</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="I18" s="46">
+        <f>ABS(E18-B18)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="J18" s="47">
+        <f>ABS(F18-C18)</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.121</v>
+      </c>
+      <c r="E19" s="4">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H19" s="45">
+        <f>ABS(D19-A19)</f>
+        <v>2.0999999999999991E-2</v>
+      </c>
+      <c r="I19" s="46">
+        <f>ABS(E19-B19)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J19" s="47">
+        <f>ABS(F19-C19)</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="H20" s="45">
+        <f>ABS(D20-A20)</f>
+        <v>2.2000000000000006E-2</v>
+      </c>
+      <c r="I20" s="46">
+        <f>ABS(E20-B20)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J20" s="47">
+        <f>ABS(F20-C20)</f>
+        <v>3.8999999999999924E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="74">
+        <v>0</v>
+      </c>
+      <c r="B21" s="80">
+        <v>-0.1</v>
+      </c>
+      <c r="C21" s="80">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D21" s="74">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E21" s="80">
+        <v>-0.10199999999999999</v>
+      </c>
+      <c r="F21" s="86">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="H21" s="45">
+        <f>ABS(D21-A21)</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I21" s="46">
+        <f>ABS(E21-B21)</f>
+        <v>1.9999999999999879E-3</v>
+      </c>
+      <c r="J21" s="47">
+        <f>ABS(F21-C21)</f>
+        <v>1.2000000000000011E-2</v>
+      </c>
+      <c r="K21" s="54">
+        <f>AVERAGE(H18:H21)</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L21" s="54">
+        <f t="shared" ref="L21:M21" si="4">AVERAGE(I18:I21)</f>
+        <v>4.4999999999999971E-3</v>
+      </c>
+      <c r="M21" s="54">
+        <f t="shared" si="4"/>
+        <v>1.8249999999999988E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="73">
+        <v>0</v>
+      </c>
+      <c r="B22" s="79">
+        <v>0</v>
+      </c>
+      <c r="C22" s="79">
         <v>0.6</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D22" s="73">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E22" s="79">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F22" s="85">
         <v>0.627</v>
       </c>
-      <c r="H2" s="77">
-        <f>ABS(D2-A2)</f>
+      <c r="H22" s="45">
+        <f>ABS(D22-A22)</f>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I2" s="78">
-        <f t="shared" ref="I2:J2" si="0">ABS(E2-B2)</f>
+      <c r="I22" s="46">
+        <f>ABS(E22-B22)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J2" s="79">
-        <f t="shared" si="0"/>
+      <c r="J22" s="47">
+        <f>ABS(F22-C22)</f>
         <v>2.7000000000000024E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="18">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
         <v>0.1</v>
       </c>
-      <c r="B3" s="19">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19">
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
         <v>0.6</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D23" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E23" s="7">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F23" s="8">
         <v>0.61799999999999999</v>
       </c>
-      <c r="H3" s="80">
-        <f t="shared" ref="H3:H25" si="1">ABS(D3-A3)</f>
+      <c r="H23" s="45">
+        <f>ABS(D23-A23)</f>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="I3" s="81">
-        <f t="shared" ref="I3:I25" si="2">ABS(E3-B3)</f>
+      <c r="I23" s="46">
+        <f>ABS(E23-B23)</f>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J3" s="82">
-        <f t="shared" ref="J3:J25" si="3">ABS(F3-C3)</f>
+      <c r="J23" s="47">
+        <f>ABS(F23-C23)</f>
         <v>1.8000000000000016E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
         <v>-0.1</v>
       </c>
-      <c r="B4" s="19">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
         <v>0.6</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D24" s="6">
         <v>-0.109</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E24" s="7">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F24" s="8">
         <v>0.63400000000000001</v>
       </c>
-      <c r="H4" s="80">
-        <f t="shared" si="1"/>
+      <c r="H24" s="45">
+        <f>ABS(D24-A24)</f>
         <v>8.9999999999999941E-3</v>
       </c>
-      <c r="I4" s="81">
-        <f t="shared" si="2"/>
+      <c r="I24" s="46">
+        <f>ABS(E24-B24)</f>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J4" s="82">
-        <f t="shared" si="3"/>
+      <c r="J24" s="47">
+        <f>ABS(F24-C24)</f>
         <v>3.400000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="21">
-        <v>0</v>
-      </c>
-      <c r="B5" s="22">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="75">
+        <v>0</v>
+      </c>
+      <c r="B25" s="81">
         <v>-0.1</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C25" s="81">
         <v>0.6</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D25" s="75">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E25" s="81">
         <v>-9.2999999999999999E-2</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F25" s="87">
         <v>0.62</v>
       </c>
-      <c r="H5" s="80">
-        <f t="shared" si="1"/>
+      <c r="H25" s="45">
+        <f>ABS(D25-A25)</f>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I5" s="81">
-        <f t="shared" si="2"/>
+      <c r="I25" s="46">
+        <f>ABS(E25-B25)</f>
         <v>7.0000000000000062E-3</v>
       </c>
-      <c r="J5" s="82">
-        <f t="shared" si="3"/>
+      <c r="J25" s="47">
+        <f>ABS(F25-C25)</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="K5" s="89">
-        <f>AVERAGE(H2:H5)</f>
+      <c r="K25" s="54">
+        <f>AVERAGE(H22:H25)</f>
         <v>1.125E-2</v>
       </c>
-      <c r="L5" s="89">
-        <f t="shared" ref="L5:M5" si="4">AVERAGE(I2:I5)</f>
+      <c r="L25" s="54">
+        <f t="shared" ref="L25:M25" si="5">AVERAGE(I22:I25)</f>
         <v>6.7500000000000017E-3</v>
       </c>
-      <c r="M5" s="89">
-        <f t="shared" si="4"/>
+      <c r="M25" s="54">
+        <f t="shared" si="5"/>
         <v>2.4750000000000022E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>0</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1.6E-2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>-1E-3</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="H6" s="80">
-        <f t="shared" si="1"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="I6" s="81">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
-      </c>
-      <c r="J6" s="82">
-        <f t="shared" si="3"/>
-        <v>1.100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.121</v>
-      </c>
-      <c r="E7" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="H7" s="80">
-        <f t="shared" si="1"/>
-        <v>2.0999999999999991E-2</v>
-      </c>
-      <c r="I7" s="81">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J7" s="82">
-        <f t="shared" si="3"/>
-        <v>1.100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-7.8E-2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="H8" s="80">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000006E-2</v>
-      </c>
-      <c r="I8" s="81">
-        <f t="shared" si="2"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J8" s="82">
-        <f t="shared" si="3"/>
-        <v>3.8999999999999924E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>0</v>
-      </c>
-      <c r="B9" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E9" s="10">
-        <v>-0.10199999999999999</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="H9" s="80">
-        <f t="shared" si="1"/>
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I9" s="81">
-        <f t="shared" si="2"/>
-        <v>1.9999999999999879E-3</v>
-      </c>
-      <c r="J9" s="82">
-        <f t="shared" si="3"/>
-        <v>1.2000000000000011E-2</v>
-      </c>
-      <c r="K9" s="89">
-        <f>AVERAGE(H6:H9)</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="L9" s="89">
-        <f t="shared" ref="L9:M9" si="5">AVERAGE(I6:I9)</f>
-        <v>4.4999999999999971E-3</v>
-      </c>
-      <c r="M9" s="89">
-        <f t="shared" si="5"/>
-        <v>1.8249999999999988E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="24">
-        <v>0</v>
-      </c>
-      <c r="B10" s="25">
-        <v>0</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="24">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E10" s="25">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="F10" s="26">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="H10" s="80">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I10" s="81">
-        <f t="shared" si="2"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J10" s="82">
-        <f t="shared" si="3"/>
-        <v>1.100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="B11" s="19">
-        <v>0</v>
-      </c>
-      <c r="C11" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0.104</v>
-      </c>
-      <c r="E11" s="19">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-      <c r="F11" s="20">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="H11" s="80">
-        <f t="shared" si="1"/>
-        <v>3.9999999999999897E-3</v>
-      </c>
-      <c r="I11" s="81">
-        <f t="shared" si="2"/>
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="J11" s="82">
-        <f t="shared" si="3"/>
-        <v>9.000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
-        <v>-0.1</v>
-      </c>
-      <c r="B12" s="19">
-        <v>0</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="18">
-        <v>-0.11700000000000001</v>
-      </c>
-      <c r="E12" s="19">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="F12" s="20">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="H12" s="80">
-        <f t="shared" si="1"/>
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="I12" s="81">
-        <f t="shared" si="2"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="J12" s="82">
-        <f t="shared" si="3"/>
-        <v>3.7000000000000033E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="21">
-        <v>0</v>
-      </c>
-      <c r="B13" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="C13" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="21">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E13" s="22">
-        <v>-0.107</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="80">
-        <f t="shared" si="1"/>
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I13" s="81">
-        <f t="shared" si="2"/>
-        <v>6.9999999999999923E-3</v>
-      </c>
-      <c r="J13" s="82">
-        <f t="shared" si="3"/>
-        <v>9.000000000000008E-3</v>
-      </c>
-      <c r="K13" s="89">
-        <f>AVERAGE(H10:H13)</f>
-        <v>9.7499999999999983E-3</v>
-      </c>
-      <c r="L13" s="89">
-        <f t="shared" ref="L13:M13" si="6">AVERAGE(I10:I13)</f>
-        <v>9.7499999999999983E-3</v>
-      </c>
-      <c r="M13" s="89">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H26" s="51">
+        <f>AVERAGE(H2:H25)</f>
+        <v>1.1750000000000002E-2</v>
+      </c>
+      <c r="I26" s="52">
+        <f t="shared" ref="I26:J26" si="6">AVERAGE(I2:I25)</f>
+        <v>8.708333333333337E-3</v>
+      </c>
+      <c r="J26" s="53">
         <f t="shared" si="6"/>
-        <v>1.6500000000000015E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
-        <v>0</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="E14" s="7">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="H14" s="80">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="I14" s="81">
-        <f t="shared" si="2"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="J14" s="82">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000044E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="E15" s="4">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.439</v>
-      </c>
-      <c r="H15" s="80">
-        <f t="shared" si="1"/>
-        <v>2.9999999999999888E-3</v>
-      </c>
-      <c r="I15" s="81">
-        <f t="shared" si="2"/>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="J15" s="82">
-        <f t="shared" si="3"/>
-        <v>1.100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-0.107</v>
-      </c>
-      <c r="E16" s="4">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.47</v>
-      </c>
-      <c r="H16" s="80">
-        <f t="shared" si="1"/>
-        <v>6.9999999999999923E-3</v>
-      </c>
-      <c r="I16" s="81">
-        <f t="shared" si="2"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J16" s="82">
-        <f t="shared" si="3"/>
-        <v>1.9999999999999962E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>0</v>
-      </c>
-      <c r="B17" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="D17" s="9">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="E17" s="10">
-        <v>-0.109</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="H17" s="80">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I17" s="81">
-        <f t="shared" si="2"/>
-        <v>8.9999999999999941E-3</v>
-      </c>
-      <c r="J17" s="82">
-        <f t="shared" si="3"/>
-        <v>2.0000000000000018E-3</v>
-      </c>
-      <c r="K17" s="89">
-        <f>AVERAGE(H14:H17)</f>
-        <v>5.7499999999999956E-3</v>
-      </c>
-      <c r="L17" s="89">
-        <f t="shared" ref="L17:M17" si="7">AVERAGE(I14:I17)</f>
-        <v>1.3249999999999998E-2</v>
-      </c>
-      <c r="M17" s="89">
-        <f t="shared" si="7"/>
-        <v>9.4999999999999946E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="24">
-        <v>0</v>
-      </c>
-      <c r="B18" s="25">
-        <v>0</v>
-      </c>
-      <c r="C18" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="D18" s="24">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E18" s="25">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F18" s="26">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="H18" s="80">
-        <f t="shared" si="1"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="I18" s="81">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J18" s="82">
-        <f t="shared" si="3"/>
-        <v>1.2999999999999956E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="B19" s="19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="D19" s="18">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="E19" s="19">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F19" s="20">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="H19" s="80">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I19" s="81">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J19" s="82">
-        <f t="shared" si="3"/>
-        <v>7.9999999999999516E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="18">
-        <v>-0.05</v>
-      </c>
-      <c r="B20" s="19">
-        <v>0</v>
-      </c>
-      <c r="C20" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="D20" s="18">
-        <v>-5.8999999999999997E-2</v>
-      </c>
-      <c r="E20" s="19">
-        <v>2E-3</v>
-      </c>
-      <c r="F20" s="20">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="H20" s="80">
-        <f t="shared" si="1"/>
-        <v>8.9999999999999941E-3</v>
-      </c>
-      <c r="I20" s="81">
-        <f t="shared" si="2"/>
-        <v>2E-3</v>
-      </c>
-      <c r="J20" s="82">
-        <f t="shared" si="3"/>
-        <v>2.3999999999999966E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="21">
-        <v>0</v>
-      </c>
-      <c r="B21" s="22">
-        <v>-0.05</v>
-      </c>
-      <c r="C21" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="D21" s="21">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="E21" s="22">
-        <v>-0.03</v>
-      </c>
-      <c r="F21" s="23">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="H21" s="80">
-        <f t="shared" si="1"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="I21" s="81">
-        <f t="shared" si="2"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="J21" s="82">
-        <f t="shared" si="3"/>
-        <v>1.0000000000000009E-3</v>
-      </c>
-      <c r="K21" s="89">
-        <f>AVERAGE(H18:H21)</f>
-        <v>1.175E-2</v>
-      </c>
-      <c r="L21" s="89">
-        <f t="shared" ref="L21:M21" si="8">AVERAGE(I18:I21)</f>
-        <v>9.5000000000000015E-3</v>
-      </c>
-      <c r="M21" s="89">
-        <f t="shared" si="8"/>
-        <v>1.1499999999999969E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
-        <v>0</v>
-      </c>
-      <c r="B22" s="7">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0.36</v>
-      </c>
-      <c r="H22" s="80">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="I22" s="81">
-        <f t="shared" si="2"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="J22" s="82">
-        <f t="shared" si="3"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="D23" s="3">
-        <v>6.3E-2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="H23" s="80">
-        <f t="shared" si="1"/>
-        <v>1.2999999999999998E-2</v>
-      </c>
-      <c r="I23" s="81">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J23" s="82">
-        <f t="shared" si="3"/>
-        <v>1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>-0.05</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="D24" s="3">
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="E24" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0.371</v>
-      </c>
-      <c r="H24" s="80">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000044E-3</v>
-      </c>
-      <c r="I24" s="81">
-        <f t="shared" si="2"/>
-        <v>2E-3</v>
-      </c>
-      <c r="J24" s="82">
-        <f t="shared" si="3"/>
-        <v>2.1000000000000019E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="12">
-        <v>0</v>
-      </c>
-      <c r="B25" s="13">
-        <v>-0.05</v>
-      </c>
-      <c r="C25" s="13">
-        <v>0.35</v>
-      </c>
-      <c r="D25" s="12">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="E25" s="13">
-        <v>-3.6999999999999998E-2</v>
-      </c>
-      <c r="F25" s="14">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="H25" s="80">
-        <f t="shared" si="1"/>
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I25" s="81">
-        <f t="shared" si="2"/>
-        <v>1.3000000000000005E-2</v>
-      </c>
-      <c r="J25" s="82">
-        <f t="shared" si="3"/>
-        <v>1.2000000000000011E-2</v>
-      </c>
-      <c r="K25" s="89">
-        <f>AVERAGE(H22:H25)</f>
-        <v>1.4000000000000002E-2</v>
-      </c>
-      <c r="L25" s="89">
-        <f t="shared" ref="L25:M25" si="9">AVERAGE(I22:I25)</f>
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="M25" s="89">
-        <f t="shared" si="9"/>
-        <v>1.100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H26" s="86">
-        <f>AVERAGE(H2:H25)</f>
-        <v>1.1750000000000003E-2</v>
-      </c>
-      <c r="I26" s="87">
-        <f t="shared" ref="I26:J26" si="10">AVERAGE(I2:I25)</f>
-        <v>8.7083333333333336E-3</v>
-      </c>
-      <c r="J26" s="88">
-        <f t="shared" si="10"/>
         <v>1.525E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
+    <sortCondition ref="C2:C25"/>
+  </sortState>
   <conditionalFormatting sqref="H2:I25">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -5324,897 +5541,902 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A606EB7-5EDB-47E4-8962-92DD3D3597BA}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="A2" s="72">
+        <v>0</v>
+      </c>
+      <c r="B2" s="78">
+        <v>0</v>
+      </c>
+      <c r="C2" s="78">
+        <v>0.35</v>
+      </c>
+      <c r="D2" s="63">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E2" s="65">
+        <v>0</v>
+      </c>
+      <c r="F2" s="67">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="H2" s="33">
+        <f>ABS(D2-A2)</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I2" s="34">
+        <f>ABS(E2-B2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="35">
+        <f>ABS(F2-C2)</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="D3" s="23">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E3" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="H3" s="36">
+        <f>ABS(D3-A3)</f>
+        <v>9.9999999999999395E-4</v>
+      </c>
+      <c r="I3" s="37">
+        <f>ABS(E3-B3)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="J3" s="38">
+        <f>ABS(F3-C3)</f>
+        <v>6.9999999999999507E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="D4" s="26">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="H4" s="36">
+        <f>ABS(D4-A4)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I4" s="37">
+        <f>ABS(E4-B4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="38">
+        <f>ABS(F4-C4)</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="74">
+        <v>0</v>
+      </c>
+      <c r="B5" s="80">
+        <v>-0.05</v>
+      </c>
+      <c r="C5" s="80">
+        <v>0.35</v>
+      </c>
+      <c r="D5" s="29">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E5" s="30">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="F5" s="69">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="H5" s="36">
+        <f>ABS(D5-A5)</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I5" s="37">
+        <f>ABS(E5-B5)</f>
+        <v>3.9999999999999966E-3</v>
+      </c>
+      <c r="J5" s="38">
+        <f>ABS(F5-C5)</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="K5" s="54">
+        <f>AVERAGE(H2:H5)</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="L5" s="54">
+        <f t="shared" ref="L5:M5" si="0">AVERAGE(I2:I5)</f>
+        <v>1.2499999999999992E-3</v>
+      </c>
+      <c r="M5" s="54">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999895E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="73">
+        <v>0</v>
+      </c>
+      <c r="B6" s="79">
+        <v>0</v>
+      </c>
+      <c r="C6" s="79">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="64">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E6" s="66">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="68">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="H6" s="36">
+        <f>ABS(D6-A6)</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I6" s="37">
+        <f>ABS(E6-B6)</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="38">
+        <f>ABS(F6-C6)</f>
+        <v>8.9999999999999525E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="13">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E7" s="14">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="H7" s="36">
+        <f>ABS(D7-A7)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I7" s="37">
+        <f>ABS(E7-B7)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J7" s="38">
+        <f>ABS(F7-C7)</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>-0.05</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="16">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="E8" s="17">
+        <v>-2E-3</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="H8" s="36">
+        <f>ABS(D8-A8)</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="I8" s="37">
+        <f>ABS(E8-B8)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="J8" s="38">
+        <f>ABS(F8-C8)</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="77">
+        <v>0</v>
+      </c>
+      <c r="B9" s="83">
+        <v>-0.05</v>
+      </c>
+      <c r="C9" s="83">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="19">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E9" s="20">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="F9" s="71">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="H9" s="36">
+        <f>ABS(D9-A9)</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I9" s="37">
+        <f>ABS(E9-B9)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J9" s="38">
+        <f>ABS(F9-C9)</f>
+        <v>1.2999999999999956E-2</v>
+      </c>
+      <c r="K9" s="54">
+        <f>AVERAGE(H6:H9)</f>
+        <v>1.35E-2</v>
+      </c>
+      <c r="L9" s="54">
+        <f t="shared" ref="L9:M9" si="1">AVERAGE(I6:I9)</f>
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="M9" s="54">
+        <f t="shared" si="1"/>
+        <v>7.7499999999999791E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="76">
+        <v>0</v>
+      </c>
+      <c r="B10" s="82">
+        <v>0</v>
+      </c>
+      <c r="C10" s="82">
+        <v>0.45</v>
+      </c>
+      <c r="D10" s="63">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E10" s="65">
+        <v>2E-3</v>
+      </c>
+      <c r="F10" s="67">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="H10" s="36">
+        <f>ABS(D10-A10)</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I10" s="37">
+        <f>ABS(E10-B10)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="J10" s="38">
+        <f>ABS(F10-C10)</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.109</v>
+      </c>
+      <c r="E11" s="24">
+        <v>-1E-3</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="H11" s="36">
+        <f>ABS(D11-A11)</f>
+        <v>8.9999999999999941E-3</v>
+      </c>
+      <c r="I11" s="37">
+        <f>ABS(E11-B11)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="J11" s="38">
+        <f>ABS(F11-C11)</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="D12" s="26">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="E12" s="27">
+        <v>-2E-3</v>
+      </c>
+      <c r="F12" s="28">
+        <v>0.46</v>
+      </c>
+      <c r="H12" s="36">
+        <f>ABS(D12-A12)</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="I12" s="37">
+        <f>ABS(E12-B12)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="J12" s="38">
+        <f>ABS(F12-C12)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="74">
+        <v>0</v>
+      </c>
+      <c r="B13" s="80">
+        <v>-0.1</v>
+      </c>
+      <c r="C13" s="80">
+        <v>0.45</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E13" s="30">
+        <v>-0.10199999999999999</v>
+      </c>
+      <c r="F13" s="69">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="H13" s="36">
+        <f>ABS(D13-A13)</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I13" s="37">
+        <f>ABS(E13-B13)</f>
+        <v>1.9999999999999879E-3</v>
+      </c>
+      <c r="J13" s="38">
+        <f>ABS(F13-C13)</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="K13" s="54">
+        <f>AVERAGE(H10:H13)</f>
+        <v>1.0749999999999999E-2</v>
+      </c>
+      <c r="L13" s="54">
+        <f t="shared" ref="L13:M13" si="2">AVERAGE(I10:I13)</f>
+        <v>1.749999999999997E-3</v>
+      </c>
+      <c r="M13" s="54">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="73">
+        <v>0</v>
+      </c>
+      <c r="B14" s="79">
+        <v>0</v>
+      </c>
+      <c r="C14" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="64">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E14" s="66">
+        <v>0</v>
+      </c>
+      <c r="F14" s="68">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H14" s="36">
+        <f>ABS(D14-A14)</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I14" s="37">
+        <f>ABS(E14-B14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="38">
+        <f>ABS(F14-C14)</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.499</v>
+      </c>
+      <c r="H15" s="36">
+        <f>ABS(D15-A15)</f>
+        <v>1.9999999999999879E-3</v>
+      </c>
+      <c r="I15" s="37">
+        <f>ABS(E15-B15)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="J15" s="38">
+        <f>ABS(F15-C15)</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="16">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="H16" s="36">
+        <f>ABS(D16-A16)</f>
+        <v>9.000000000000008E-3</v>
+      </c>
+      <c r="I16" s="37">
+        <f>ABS(E16-B16)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="38">
+        <f>ABS(F16-C16)</f>
+        <v>1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="77">
+        <v>0</v>
+      </c>
+      <c r="B17" s="83">
+        <v>-0.1</v>
+      </c>
+      <c r="C17" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="19">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E17" s="20">
+        <v>-0.10299999999999999</v>
+      </c>
+      <c r="F17" s="71">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="H17" s="36">
+        <f>ABS(D17-A17)</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I17" s="37">
+        <f>ABS(E17-B17)</f>
+        <v>2.9999999999999888E-3</v>
+      </c>
+      <c r="J17" s="38">
+        <f>ABS(F17-C17)</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="K17" s="54">
+        <f>AVERAGE(H14:H17)</f>
+        <v>1.3749999999999998E-2</v>
+      </c>
+      <c r="L17" s="54">
+        <f t="shared" ref="L17:M17" si="3">AVERAGE(I14:I17)</f>
+        <v>1.2499999999999972E-3</v>
+      </c>
+      <c r="M17" s="54">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="76">
+        <v>0</v>
+      </c>
+      <c r="B18" s="82">
+        <v>0</v>
+      </c>
+      <c r="C18" s="82">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D18" s="63">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E18" s="65">
+        <v>1E-3</v>
+      </c>
+      <c r="F18" s="67">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="H18" s="36">
+        <f>ABS(D18-A18)</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I18" s="37">
+        <f>ABS(E18-B18)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="J18" s="38">
+        <f>ABS(F18-C18)</f>
+        <v>1.2999999999999901E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0.106</v>
+      </c>
+      <c r="E19" s="24">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="H19" s="36">
+        <f>ABS(D19-A19)</f>
+        <v>5.9999999999999915E-3</v>
+      </c>
+      <c r="I19" s="37">
+        <f>ABS(E19-B19)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J19" s="38">
+        <f>ABS(F19-C19)</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D20" s="26">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="E20" s="27">
+        <v>-1E-3</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="H20" s="36">
+        <f>ABS(D20-A20)</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="I20" s="37">
+        <f>ABS(E20-B20)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="J20" s="38">
+        <f>ABS(F20-C20)</f>
+        <v>1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="74">
+        <v>0</v>
+      </c>
+      <c r="B21" s="80">
+        <v>-0.1</v>
+      </c>
+      <c r="C21" s="80">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D21" s="29">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E21" s="30">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="F21" s="69">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="H21" s="36">
+        <f>ABS(D21-A21)</f>
+        <v>2.7E-2</v>
+      </c>
+      <c r="I21" s="37">
+        <f>ABS(E21-B21)</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="J21" s="38">
+        <f>ABS(F21-C21)</f>
+        <v>1.4999999999999902E-2</v>
+      </c>
+      <c r="K21" s="54">
+        <f>AVERAGE(H18:H21)</f>
+        <v>1.6749999999999998E-2</v>
+      </c>
+      <c r="L21" s="54">
+        <f t="shared" ref="L21:M21" si="4">AVERAGE(I18:I21)</f>
+        <v>2.2500000000000003E-3</v>
+      </c>
+      <c r="M21" s="54">
+        <f t="shared" si="4"/>
+        <v>1.0499999999999954E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="73">
+        <v>0</v>
+      </c>
+      <c r="B22" s="79">
+        <v>0</v>
+      </c>
+      <c r="C22" s="79">
         <v>0.6</v>
       </c>
-      <c r="D2" s="33">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E2" s="34">
-        <v>0</v>
-      </c>
-      <c r="F2" s="35">
+      <c r="D22" s="64">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E22" s="66">
+        <v>0</v>
+      </c>
+      <c r="F22" s="68">
         <v>0.623</v>
       </c>
-      <c r="H2" s="68">
-        <f>ABS(D2-A2)</f>
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="I2" s="69">
-        <f t="shared" ref="I2:J17" si="0">ABS(E2-B2)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="70">
-        <f t="shared" si="0"/>
+      <c r="H22" s="36">
+        <f>ABS(D22-A22)</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I22" s="37">
+        <f>ABS(E22-B22)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="38">
+        <f>ABS(F22-C22)</f>
         <v>2.300000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="18">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
         <v>0.1</v>
       </c>
-      <c r="B3" s="19">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19">
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
         <v>0.6</v>
       </c>
-      <c r="D3" s="36">
-        <v>0.13</v>
-      </c>
-      <c r="E3" s="37">
+      <c r="D23" s="13">
+        <v>0.11</v>
+      </c>
+      <c r="E23" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F23" s="15">
         <v>0.60199999999999998</v>
       </c>
-      <c r="H3" s="71">
-        <f t="shared" ref="H3:J25" si="1">ABS(D3-A3)</f>
-        <v>0.03</v>
-      </c>
-      <c r="I3" s="72">
-        <f t="shared" si="0"/>
+      <c r="H23" s="36">
+        <f>ABS(D23-A23)</f>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="I23" s="37">
+        <f>ABS(E23-B23)</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J3" s="73">
-        <f t="shared" si="0"/>
+      <c r="J23" s="38">
+        <f>ABS(F23-C23)</f>
         <v>2.0000000000000018E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
         <v>-0.1</v>
       </c>
-      <c r="B4" s="19">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19">
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
         <v>0.6</v>
       </c>
-      <c r="D4" s="39">
-        <v>-6.7000000000000004E-2</v>
-      </c>
-      <c r="E4" s="40">
-        <v>0</v>
-      </c>
-      <c r="F4" s="41">
+      <c r="D24" s="16">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18">
         <v>0.624</v>
       </c>
-      <c r="H4" s="71">
-        <f t="shared" si="1"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="I4" s="72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="73">
-        <f t="shared" si="0"/>
+      <c r="H24" s="36">
+        <f>ABS(D24-A24)</f>
+        <v>1.3000000000000012E-2</v>
+      </c>
+      <c r="I24" s="37">
+        <f>ABS(E24-B24)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="38">
+        <f>ABS(F24-C24)</f>
         <v>2.4000000000000021E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="21">
-        <v>0</v>
-      </c>
-      <c r="B5" s="22">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="75">
+        <v>0</v>
+      </c>
+      <c r="B25" s="81">
         <v>-0.1</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C25" s="81">
         <v>0.6</v>
       </c>
-      <c r="D5" s="44">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="E5" s="45">
+      <c r="D25" s="57">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E25" s="61">
         <v>-0.108</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F25" s="70">
         <v>0.63200000000000001</v>
       </c>
-      <c r="H5" s="71">
-        <f t="shared" si="1"/>
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="I5" s="72">
-        <f t="shared" si="0"/>
+      <c r="H25" s="36">
+        <f>ABS(D25-A25)</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I25" s="37">
+        <f>ABS(E25-B25)</f>
         <v>7.9999999999999932E-3</v>
       </c>
-      <c r="J5" s="73">
-        <f t="shared" si="0"/>
+      <c r="J25" s="38">
+        <f>ABS(F25-C25)</f>
         <v>3.2000000000000028E-2</v>
       </c>
-      <c r="K5" s="89">
-        <f>AVERAGE(H2:H5)</f>
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="L5" s="89">
-        <f t="shared" ref="L5:M5" si="2">AVERAGE(I2:I5)</f>
+      <c r="K25" s="54">
+        <f>AVERAGE(H22:H25)</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="L25" s="54">
+        <f t="shared" ref="L25:M25" si="5">AVERAGE(I22:I25)</f>
         <v>2.7499999999999981E-3</v>
       </c>
-      <c r="M5" s="89">
-        <f t="shared" si="2"/>
+      <c r="M25" s="54">
+        <f t="shared" si="5"/>
         <v>2.0250000000000018E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>0</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D6" s="49">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E6" s="50">
-        <v>1E-3</v>
-      </c>
-      <c r="F6" s="51">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="H6" s="71">
-        <f t="shared" si="1"/>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="I6" s="72">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="J6" s="73">
-        <f t="shared" si="0"/>
-        <v>1.2999999999999901E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D7" s="52">
-        <v>0.126</v>
-      </c>
-      <c r="E7" s="53">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="F7" s="54">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="H7" s="71">
-        <f t="shared" si="1"/>
-        <v>2.5999999999999995E-2</v>
-      </c>
-      <c r="I7" s="72">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J7" s="73">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000018E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D8" s="55">
-        <v>-8.4000000000000005E-2</v>
-      </c>
-      <c r="E8" s="56">
-        <v>-1E-3</v>
-      </c>
-      <c r="F8" s="57">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="H8" s="71">
-        <f t="shared" si="1"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="I8" s="72">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="J8" s="73">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000011E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>0</v>
-      </c>
-      <c r="B9" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D9" s="60">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E9" s="61">
-        <v>-0.10100000000000001</v>
-      </c>
-      <c r="F9" s="62">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="H9" s="71">
-        <f t="shared" si="1"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="I9" s="72">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-3</v>
-      </c>
-      <c r="J9" s="73">
-        <f t="shared" si="0"/>
-        <v>1.4999999999999902E-2</v>
-      </c>
-      <c r="K9" s="89">
-        <f>AVERAGE(H6:H9)</f>
-        <v>2.9249999999999998E-2</v>
-      </c>
-      <c r="L9" s="89">
-        <f t="shared" ref="L9:M9" si="3">AVERAGE(I6:I9)</f>
-        <v>2.2500000000000003E-3</v>
-      </c>
-      <c r="M9" s="89">
-        <f t="shared" si="3"/>
-        <v>1.0499999999999954E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="24">
-        <v>0</v>
-      </c>
-      <c r="B10" s="25">
-        <v>0</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="33">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="E10" s="34">
-        <v>0</v>
-      </c>
-      <c r="F10" s="35">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="H10" s="71">
-        <f t="shared" si="1"/>
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="I10" s="72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="73">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000071E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="B11" s="19">
-        <v>0</v>
-      </c>
-      <c r="C11" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="36">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="E11" s="37">
-        <v>2E-3</v>
-      </c>
-      <c r="F11" s="38">
-        <v>0.499</v>
-      </c>
-      <c r="H11" s="71">
-        <f t="shared" si="1"/>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="I11" s="72">
-        <f t="shared" si="0"/>
-        <v>2E-3</v>
-      </c>
-      <c r="J11" s="73">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
-        <v>-0.1</v>
-      </c>
-      <c r="B12" s="19">
-        <v>0</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="39">
-        <v>-8.1000000000000003E-2</v>
-      </c>
-      <c r="E12" s="40">
-        <v>0</v>
-      </c>
-      <c r="F12" s="41">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="H12" s="71">
-        <f t="shared" si="1"/>
-        <v>1.9000000000000003E-2</v>
-      </c>
-      <c r="I12" s="72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="73">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000011E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="21">
-        <v>0</v>
-      </c>
-      <c r="B13" s="22">
-        <v>-0.1</v>
-      </c>
-      <c r="C13" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="44">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E13" s="45">
-        <v>-0.10299999999999999</v>
-      </c>
-      <c r="F13" s="46">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="H13" s="71">
-        <f t="shared" si="1"/>
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="I13" s="72">
-        <f t="shared" si="0"/>
-        <v>2.9999999999999888E-3</v>
-      </c>
-      <c r="J13" s="73">
-        <f t="shared" si="0"/>
-        <v>1.100000000000001E-2</v>
-      </c>
-      <c r="K13" s="89">
-        <f>AVERAGE(H10:H13)</f>
-        <v>3.3750000000000002E-2</v>
-      </c>
-      <c r="L13" s="89">
-        <f t="shared" ref="L13:M13" si="4">AVERAGE(I10:I13)</f>
-        <v>1.2499999999999972E-3</v>
-      </c>
-      <c r="M13" s="89">
-        <f t="shared" si="4"/>
-        <v>8.0000000000000071E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
-        <v>0</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="D14" s="49">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E14" s="50">
-        <v>2E-3</v>
-      </c>
-      <c r="F14" s="51">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="H14" s="71">
-        <f t="shared" si="1"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="I14" s="72">
-        <f t="shared" si="0"/>
-        <v>2E-3</v>
-      </c>
-      <c r="J14" s="73">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000053E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="D15" s="52">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="E15" s="53">
-        <v>-1E-3</v>
-      </c>
-      <c r="F15" s="54">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="H15" s="71">
-        <f t="shared" si="1"/>
-        <v>1.8999999999999989E-2</v>
-      </c>
-      <c r="I15" s="72">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="J15" s="73">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000044E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>-0.1</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="D16" s="55">
-        <v>-9.4E-2</v>
-      </c>
-      <c r="E16" s="56">
-        <v>-2E-3</v>
-      </c>
-      <c r="F16" s="57">
-        <v>0.46</v>
-      </c>
-      <c r="H16" s="71">
-        <f t="shared" si="1"/>
-        <v>6.0000000000000053E-3</v>
-      </c>
-      <c r="I16" s="72">
-        <f t="shared" si="0"/>
-        <v>2E-3</v>
-      </c>
-      <c r="J16" s="73">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>0</v>
-      </c>
-      <c r="B17" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="D17" s="60">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="E17" s="61">
-        <v>-0.10199999999999999</v>
-      </c>
-      <c r="F17" s="62">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="H17" s="71">
-        <f t="shared" si="1"/>
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="I17" s="72">
-        <f t="shared" si="0"/>
-        <v>1.9999999999999879E-3</v>
-      </c>
-      <c r="J17" s="73">
-        <f t="shared" si="0"/>
-        <v>1.100000000000001E-2</v>
-      </c>
-      <c r="K17" s="89">
-        <f>AVERAGE(H14:H17)</f>
-        <v>2.5749999999999995E-2</v>
-      </c>
-      <c r="L17" s="89">
-        <f t="shared" ref="L17:M17" si="5">AVERAGE(I14:I17)</f>
-        <v>1.749999999999997E-3</v>
-      </c>
-      <c r="M17" s="89">
-        <f t="shared" si="5"/>
-        <v>8.0000000000000071E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="24">
-        <v>0</v>
-      </c>
-      <c r="B18" s="25">
-        <v>0</v>
-      </c>
-      <c r="C18" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="D18" s="33">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="E18" s="34">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="F18" s="35">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="H18" s="71">
-        <f t="shared" si="1"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="I18" s="72">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J18" s="73">
-        <f t="shared" si="1"/>
-        <v>8.9999999999999525E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="B19" s="19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="D19" s="36">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E19" s="37">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="F19" s="38">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="H19" s="71">
-        <f t="shared" si="1"/>
-        <v>2.4999999999999994E-2</v>
-      </c>
-      <c r="I19" s="72">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J19" s="73">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000036E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="18">
-        <v>-0.05</v>
-      </c>
-      <c r="B20" s="19">
-        <v>0</v>
-      </c>
-      <c r="C20" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="D20" s="39">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="E20" s="40">
-        <v>-2E-3</v>
-      </c>
-      <c r="F20" s="41">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="H20" s="71">
-        <f t="shared" si="1"/>
-        <v>6.0000000000000053E-3</v>
-      </c>
-      <c r="I20" s="72">
-        <f t="shared" si="1"/>
-        <v>2E-3</v>
-      </c>
-      <c r="J20" s="73">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000044E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="21">
-        <v>0</v>
-      </c>
-      <c r="B21" s="22">
-        <v>-0.05</v>
-      </c>
-      <c r="C21" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="D21" s="44">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E21" s="45">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-      <c r="F21" s="46">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="H21" s="71">
-        <f t="shared" si="1"/>
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="I21" s="72">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J21" s="73">
-        <f t="shared" si="1"/>
-        <v>1.2999999999999956E-2</v>
-      </c>
-      <c r="K21" s="89">
-        <f>AVERAGE(H18:H21)</f>
-        <v>1.95E-2</v>
-      </c>
-      <c r="L21" s="89">
-        <f t="shared" ref="L21:M21" si="6">AVERAGE(I18:I21)</f>
-        <v>4.2500000000000003E-3</v>
-      </c>
-      <c r="M21" s="89">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="H26" s="48">
+        <f>AVERAGE(H2:H25)</f>
+        <v>1.479166666666667E-2</v>
+      </c>
+      <c r="I26" s="49">
+        <f t="shared" ref="I26:J26" si="6">AVERAGE(I2:I25)</f>
+        <v>2.249999999999999E-3</v>
+      </c>
+      <c r="J26" s="50">
         <f t="shared" si="6"/>
-        <v>7.7499999999999791E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
-        <v>0</v>
-      </c>
-      <c r="B22" s="7">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="D22" s="49">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E22" s="50">
-        <v>0</v>
-      </c>
-      <c r="F22" s="51">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="H22" s="71">
-        <f t="shared" si="1"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="I22" s="72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="73">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000044E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="D23" s="52">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="E23" s="53">
-        <v>1E-3</v>
-      </c>
-      <c r="F23" s="54">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="H23" s="71">
-        <f t="shared" si="1"/>
-        <v>3.1E-2</v>
-      </c>
-      <c r="I23" s="72">
-        <f t="shared" si="1"/>
-        <v>1E-3</v>
-      </c>
-      <c r="J23" s="73">
-        <f t="shared" si="1"/>
-        <v>6.9999999999999507E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>-0.05</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="D24" s="55">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-      <c r="E24" s="56">
-        <v>0</v>
-      </c>
-      <c r="F24" s="57">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="H24" s="71">
-        <f t="shared" si="1"/>
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="I24" s="72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="73">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="12">
-        <v>0</v>
-      </c>
-      <c r="B25" s="13">
-        <v>-0.05</v>
-      </c>
-      <c r="C25" s="13">
-        <v>0.35</v>
-      </c>
-      <c r="D25" s="65">
-        <v>6.2E-2</v>
-      </c>
-      <c r="E25" s="66">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-      <c r="F25" s="67">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="H25" s="71">
-        <f t="shared" si="1"/>
-        <v>6.2E-2</v>
-      </c>
-      <c r="I25" s="72">
-        <f t="shared" si="1"/>
-        <v>3.9999999999999966E-3</v>
-      </c>
-      <c r="J25" s="73">
-        <f t="shared" si="1"/>
-        <v>2.0000000000000018E-3</v>
-      </c>
-      <c r="K25" s="89">
-        <f>AVERAGE(H22:H25)</f>
-        <v>3.85E-2</v>
-      </c>
-      <c r="L25" s="89">
-        <f t="shared" ref="L25:M25" si="7">AVERAGE(I22:I25)</f>
-        <v>1.2499999999999992E-3</v>
-      </c>
-      <c r="M25" s="89">
-        <f t="shared" si="7"/>
-        <v>3.7499999999999895E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="H26" s="83">
-        <f>AVERAGE(H2:H25)</f>
-        <v>3.0791666666666672E-2</v>
-      </c>
-      <c r="I26" s="84">
-        <f t="shared" ref="I26:J26" si="8">AVERAGE(I2:I25)</f>
-        <v>2.249999999999999E-3</v>
-      </c>
-      <c r="J26" s="85">
-        <f t="shared" si="8"/>
         <v>9.7083333333333258E-3</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
+    <sortCondition ref="C2:C25"/>
+  </sortState>
   <conditionalFormatting sqref="H2:I25 H26:J26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -6249,894 +6471,899 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE175F6-10E1-4E00-B979-EE052486A63E}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="31">
-        <v>0</v>
-      </c>
-      <c r="B2" s="32">
-        <v>0</v>
-      </c>
-      <c r="C2" s="32">
+      <c r="A2" s="55">
+        <v>0</v>
+      </c>
+      <c r="B2" s="59">
+        <v>0</v>
+      </c>
+      <c r="C2" s="59">
+        <v>0.35</v>
+      </c>
+      <c r="D2" s="63">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E2" s="65">
+        <v>-2E-3</v>
+      </c>
+      <c r="F2" s="67">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="H2" s="33">
+        <f>ABS(D2-A2)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I2" s="34">
+        <f>ABS(E2-B2)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="J2" s="35">
+        <f>ABS(F2-C2)</f>
+        <v>7.9999999999999516E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="24">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="D3" s="23">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E3" s="24">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="H3" s="36">
+        <f>ABS(D3-A3)</f>
+        <v>2.2999999999999993E-2</v>
+      </c>
+      <c r="I3" s="37">
+        <f>ABS(E3-B3)</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="38">
+        <f>ABS(F3-C3)</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="23">
+        <v>-0.05</v>
+      </c>
+      <c r="B4" s="24">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="D4" s="26">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="E4" s="27">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F4" s="28">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="H4" s="36">
+        <f>ABS(D4-A4)</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="I4" s="37">
+        <f>ABS(E4-B4)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J4" s="38">
+        <f>ABS(F4-C4)</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="31">
+        <v>0</v>
+      </c>
+      <c r="B5" s="32">
+        <v>-0.05</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.35</v>
+      </c>
+      <c r="D5" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="30">
+        <v>-0.05</v>
+      </c>
+      <c r="F5" s="69">
+        <v>0.36</v>
+      </c>
+      <c r="H5" s="36">
+        <f>ABS(D5-A5)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I5" s="37">
+        <f>ABS(E5-B5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="38">
+        <f>ABS(F5-C5)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K5" s="54">
+        <f>AVERAGE(H2:H5)</f>
+        <v>1.3249999999999998E-2</v>
+      </c>
+      <c r="L5" s="54">
+        <f t="shared" ref="L5:M5" si="0">AVERAGE(I2:I5)</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M5" s="54">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999928E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="56">
+        <v>0</v>
+      </c>
+      <c r="B6" s="60">
+        <v>0</v>
+      </c>
+      <c r="C6" s="60">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="64">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E6" s="66">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="68">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="H6" s="36">
+        <f>ABS(D6-A6)</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I6" s="37">
+        <f>ABS(E6-B6)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="38">
+        <f>ABS(F6-C6)</f>
+        <v>9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E7" s="14">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="H7" s="36">
+        <f>ABS(D7-A7)</f>
+        <v>1.2000000000000004E-2</v>
+      </c>
+      <c r="I7" s="37">
+        <f>ABS(E7-B7)</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J7" s="38">
+        <f>ABS(F7-C7)</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
+        <v>-0.05</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="16">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="E8" s="17">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="H8" s="36">
+        <f>ABS(D8-A8)</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="I8" s="37">
+        <f>ABS(E8-B8)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J8" s="38">
+        <f>ABS(F8-C8)</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="21">
+        <v>0</v>
+      </c>
+      <c r="B9" s="22">
+        <v>-0.05</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="19">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E9" s="20">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="F9" s="71">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="H9" s="36">
+        <f>ABS(D9-A9)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I9" s="37">
+        <f>ABS(E9-B9)</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="J9" s="38">
+        <f>ABS(F9-C9)</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="K9" s="54">
+        <f>AVERAGE(H6:H9)</f>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="L9" s="54">
+        <f t="shared" ref="L9:M9" si="1">AVERAGE(I6:I9)</f>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="M9" s="54">
+        <f t="shared" si="1"/>
+        <v>6.2500000000000056E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="58">
+        <v>0</v>
+      </c>
+      <c r="B10" s="62">
+        <v>0</v>
+      </c>
+      <c r="C10" s="62">
+        <v>0.45</v>
+      </c>
+      <c r="D10" s="63">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E10" s="65">
+        <v>-0.01</v>
+      </c>
+      <c r="F10" s="67">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H10" s="36">
+        <f>ABS(D10-A10)</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I10" s="37">
+        <f>ABS(E10-B10)</f>
+        <v>0.01</v>
+      </c>
+      <c r="J10" s="38">
+        <f>ABS(F10-C10)</f>
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="24">
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="D11" s="23">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E11" s="24">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="H11" s="36">
+        <f>ABS(D11-A11)</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="I11" s="37">
+        <f>ABS(E11-B11)</f>
+        <v>1.4E-2</v>
+      </c>
+      <c r="J11" s="38">
+        <f>ABS(F11-C11)</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="B12" s="24">
+        <v>0</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="D12" s="26">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="E12" s="27">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="F12" s="28">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="H12" s="36">
+        <f>ABS(D12-A12)</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="I12" s="37">
+        <f>ABS(E12-B12)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J12" s="38">
+        <f>ABS(F12-C12)</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="31">
+        <v>0</v>
+      </c>
+      <c r="B13" s="32">
+        <v>-0.1</v>
+      </c>
+      <c r="C13" s="32">
+        <v>0.45</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="E13" s="30">
+        <v>-0.10299999999999999</v>
+      </c>
+      <c r="F13" s="69">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="H13" s="36">
+        <f>ABS(D13-A13)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I13" s="37">
+        <f>ABS(E13-B13)</f>
+        <v>2.9999999999999888E-3</v>
+      </c>
+      <c r="J13" s="38">
+        <f>ABS(F13-C13)</f>
+        <v>9.000000000000008E-3</v>
+      </c>
+      <c r="K13" s="54">
+        <f>AVERAGE(H10:H13)</f>
+        <v>1.4749999999999999E-2</v>
+      </c>
+      <c r="L13" s="54">
+        <f t="shared" ref="L13:M13" si="2">AVERAGE(I10:I13)</f>
+        <v>8.4999999999999971E-3</v>
+      </c>
+      <c r="M13" s="54">
+        <f t="shared" si="2"/>
+        <v>6.5000000000000058E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="56">
+        <v>0</v>
+      </c>
+      <c r="B14" s="60">
+        <v>0</v>
+      </c>
+      <c r="C14" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="64">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E14" s="66">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="F14" s="68">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="H14" s="36">
+        <f>ABS(D14-A14)</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I14" s="37">
+        <f>ABS(E14-B14)</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J14" s="38">
+        <f>ABS(F14-C14)</f>
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.107</v>
+      </c>
+      <c r="E15" s="14">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="H15" s="36">
+        <f>ABS(D15-A15)</f>
+        <v>6.9999999999999923E-3</v>
+      </c>
+      <c r="I15" s="37">
+        <f>ABS(E15-B15)</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J15" s="38">
+        <f>ABS(F15-C15)</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
+        <v>-0.1</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="16">
+        <v>-0.10299999999999999</v>
+      </c>
+      <c r="E16" s="17">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0.501</v>
+      </c>
+      <c r="H16" s="36">
+        <f>ABS(D16-A16)</f>
+        <v>2.9999999999999888E-3</v>
+      </c>
+      <c r="I16" s="37">
+        <f>ABS(E16-B16)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J16" s="38">
+        <f>ABS(F16-C16)</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="21">
+        <v>0</v>
+      </c>
+      <c r="B17" s="22">
+        <v>-0.1</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="19">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E17" s="20">
+        <v>-0.11799999999999999</v>
+      </c>
+      <c r="F17" s="71">
+        <v>0.499</v>
+      </c>
+      <c r="H17" s="36">
+        <f>ABS(D17-A17)</f>
+        <v>2.7E-2</v>
+      </c>
+      <c r="I17" s="37">
+        <f>ABS(E17-B17)</f>
+        <v>1.7999999999999988E-2</v>
+      </c>
+      <c r="J17" s="38">
+        <f>ABS(F17-C17)</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="K17" s="54">
+        <f>AVERAGE(H14:H17)</f>
+        <v>1.7749999999999995E-2</v>
+      </c>
+      <c r="L17" s="54">
+        <f t="shared" ref="L17:M17" si="3">AVERAGE(I14:I17)</f>
+        <v>1.1249999999999996E-2</v>
+      </c>
+      <c r="M17" s="54">
+        <f t="shared" si="3"/>
+        <v>3.7500000000000033E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="58">
+        <v>0</v>
+      </c>
+      <c r="B18" s="62">
+        <v>0</v>
+      </c>
+      <c r="C18" s="62">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D18" s="63">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E18" s="65">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="F18" s="67">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="H18" s="36">
+        <f>ABS(D18-A18)</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I18" s="37">
+        <f>ABS(E18-B18)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J18" s="38">
+        <f>ABS(F18-C18)</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="B19" s="24">
+        <v>0</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0.104</v>
+      </c>
+      <c r="E19" s="24">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="H19" s="36">
+        <f>ABS(D19-A19)</f>
+        <v>3.9999999999999897E-3</v>
+      </c>
+      <c r="I19" s="37">
+        <f>ABS(E19-B19)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J19" s="38">
+        <f>ABS(F19-C19)</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="B20" s="24">
+        <v>0</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D20" s="26">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="E20" s="27">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H20" s="36">
+        <f>ABS(D20-A20)</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="I20" s="37">
+        <f>ABS(E20-B20)</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J20" s="38">
+        <f>ABS(F20-C20)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="31">
+        <v>0</v>
+      </c>
+      <c r="B21" s="32">
+        <v>-0.1</v>
+      </c>
+      <c r="C21" s="32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D21" s="29">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E21" s="30">
+        <v>-0.10299999999999999</v>
+      </c>
+      <c r="F21" s="69">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="H21" s="36">
+        <f>ABS(D21-A21)</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I21" s="37">
+        <f>ABS(E21-B21)</f>
+        <v>2.9999999999999888E-3</v>
+      </c>
+      <c r="J21" s="38">
+        <f>ABS(F21-C21)</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="K21" s="54">
+        <f>AVERAGE(H18:H21)</f>
+        <v>2.0749999999999998E-2</v>
+      </c>
+      <c r="L21" s="54">
+        <f t="shared" ref="L21:M21" si="4">AVERAGE(I18:I21)</f>
+        <v>1.1749999999999997E-2</v>
+      </c>
+      <c r="M21" s="54">
+        <f t="shared" si="4"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="56">
+        <v>0</v>
+      </c>
+      <c r="B22" s="60">
+        <v>0</v>
+      </c>
+      <c r="C22" s="60">
         <v>0.6</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D22" s="64">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E22" s="66">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F22" s="68">
         <v>0.58799999999999997</v>
       </c>
-      <c r="H2" s="68">
-        <f>ABS(D2-A2)</f>
+      <c r="H22" s="36">
+        <f>ABS(D22-A22)</f>
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="I2" s="69">
-        <f t="shared" ref="I2:J17" si="0">ABS(E2-B2)</f>
+      <c r="I22" s="37">
+        <f>ABS(E22-B22)</f>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J2" s="70">
-        <f t="shared" si="0"/>
+      <c r="J22" s="38">
+        <f>ABS(F22-C22)</f>
         <v>1.2000000000000011E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="36">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="13">
         <v>0.1</v>
       </c>
-      <c r="B3" s="37">
-        <v>0</v>
-      </c>
-      <c r="C3" s="37">
+      <c r="B23" s="14">
+        <v>0</v>
+      </c>
+      <c r="C23" s="14">
         <v>0.6</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D23" s="13">
         <v>0.107</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E23" s="14">
         <v>-1.4E-2</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F23" s="15">
         <v>0.59899999999999998</v>
       </c>
-      <c r="H3" s="71">
-        <f t="shared" ref="H3:J25" si="1">ABS(D3-A3)</f>
+      <c r="H23" s="36">
+        <f>ABS(D23-A23)</f>
         <v>6.9999999999999923E-3</v>
       </c>
-      <c r="I3" s="72">
-        <f t="shared" si="0"/>
+      <c r="I23" s="37">
+        <f>ABS(E23-B23)</f>
         <v>1.4E-2</v>
       </c>
-      <c r="J3" s="73">
-        <f t="shared" si="0"/>
+      <c r="J23" s="38">
+        <f>ABS(F23-C23)</f>
         <v>1.0000000000000009E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="36">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="13">
         <v>-0.1</v>
       </c>
-      <c r="B4" s="37">
-        <v>0</v>
-      </c>
-      <c r="C4" s="37">
+      <c r="B24" s="14">
+        <v>0</v>
+      </c>
+      <c r="C24" s="14">
         <v>0.6</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D24" s="16">
         <v>-0.107</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E24" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F24" s="18">
         <v>0.60499999999999998</v>
       </c>
-      <c r="H4" s="71">
-        <f t="shared" si="1"/>
+      <c r="H24" s="36">
+        <f>ABS(D24-A24)</f>
         <v>6.9999999999999923E-3</v>
       </c>
-      <c r="I4" s="72">
-        <f t="shared" si="0"/>
+      <c r="I24" s="37">
+        <f>ABS(E24-B24)</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J4" s="73">
-        <f t="shared" si="0"/>
+      <c r="J24" s="38">
+        <f>ABS(F24-C24)</f>
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="42">
-        <v>0</v>
-      </c>
-      <c r="B5" s="43">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="57">
+        <v>0</v>
+      </c>
+      <c r="B25" s="61">
         <v>-0.1</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C25" s="61">
         <v>0.6</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D25" s="57">
         <v>1.9E-2</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E25" s="61">
         <v>-0.105</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F25" s="70">
         <v>0.61599999999999999</v>
       </c>
-      <c r="H5" s="71">
-        <f t="shared" si="1"/>
+      <c r="H25" s="36">
+        <f>ABS(D25-A25)</f>
         <v>1.9E-2</v>
       </c>
-      <c r="I5" s="72">
-        <f t="shared" si="0"/>
+      <c r="I25" s="37">
+        <f>ABS(E25-B25)</f>
         <v>4.9999999999999906E-3</v>
       </c>
-      <c r="J5" s="73">
-        <f t="shared" si="0"/>
+      <c r="J25" s="38">
+        <f>ABS(F25-C25)</f>
         <v>1.6000000000000014E-2</v>
       </c>
-      <c r="K5" s="89">
-        <f>AVERAGE(H2:H5)</f>
+      <c r="K25" s="54">
+        <f>AVERAGE(H22:H25)</f>
         <v>1.5499999999999996E-2</v>
       </c>
-      <c r="L5" s="89">
-        <f t="shared" ref="L5:M5" si="2">AVERAGE(I2:I5)</f>
+      <c r="L25" s="54">
+        <f t="shared" ref="L25:M25" si="5">AVERAGE(I22:I25)</f>
         <v>8.2499999999999969E-3</v>
       </c>
-      <c r="M5" s="89">
-        <f t="shared" si="2"/>
+      <c r="M25" s="54">
+        <f t="shared" si="5"/>
         <v>8.5000000000000075E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
-        <v>0</v>
-      </c>
-      <c r="B6" s="48">
-        <v>0</v>
-      </c>
-      <c r="C6" s="48">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D6" s="49">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E6" s="50">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="F6" s="51">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="H6" s="71">
-        <f t="shared" si="1"/>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="I6" s="72">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J6" s="73">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="52">
-        <v>0.1</v>
-      </c>
-      <c r="B7" s="53">
-        <v>0</v>
-      </c>
-      <c r="C7" s="53">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D7" s="52">
-        <v>0.104</v>
-      </c>
-      <c r="E7" s="53">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="F7" s="54">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="H7" s="71">
-        <f t="shared" si="1"/>
-        <v>3.9999999999999897E-3</v>
-      </c>
-      <c r="I7" s="72">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J7" s="73">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000027E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="52">
-        <v>-0.1</v>
-      </c>
-      <c r="B8" s="53">
-        <v>0</v>
-      </c>
-      <c r="C8" s="53">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D8" s="55">
-        <v>-0.10100000000000001</v>
-      </c>
-      <c r="E8" s="56">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="F8" s="57">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H8" s="71">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000009E-3</v>
-      </c>
-      <c r="I8" s="72">
-        <f t="shared" si="0"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="J8" s="73">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="58">
-        <v>0</v>
-      </c>
-      <c r="B9" s="59">
-        <v>-0.1</v>
-      </c>
-      <c r="C9" s="59">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D9" s="60">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="E9" s="61">
-        <v>-0.10299999999999999</v>
-      </c>
-      <c r="F9" s="62">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="H9" s="71">
-        <f t="shared" si="1"/>
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="I9" s="72">
-        <f t="shared" si="0"/>
-        <v>2.9999999999999888E-3</v>
-      </c>
-      <c r="J9" s="73">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000018E-3</v>
-      </c>
-      <c r="K9" s="89">
-        <f>AVERAGE(H6:H9)</f>
-        <v>2.0749999999999998E-2</v>
-      </c>
-      <c r="L9" s="89">
-        <f t="shared" ref="L9:M9" si="3">AVERAGE(I6:I9)</f>
-        <v>1.1749999999999997E-2</v>
-      </c>
-      <c r="M9" s="89">
-        <f t="shared" si="3"/>
-        <v>4.0000000000000036E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="63">
-        <v>0</v>
-      </c>
-      <c r="B10" s="64">
-        <v>0</v>
-      </c>
-      <c r="C10" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="33">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E10" s="34">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="F10" s="35">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="H10" s="71">
-        <f t="shared" si="1"/>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I10" s="72">
-        <f t="shared" si="0"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="J10" s="73">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000062E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="B11" s="37">
-        <v>0</v>
-      </c>
-      <c r="C11" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="36">
-        <v>0.107</v>
-      </c>
-      <c r="E11" s="37">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="F11" s="38">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="H11" s="71">
-        <f t="shared" si="1"/>
-        <v>6.9999999999999923E-3</v>
-      </c>
-      <c r="I11" s="72">
-        <f t="shared" si="0"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="J11" s="73">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000053E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="36">
-        <v>-0.1</v>
-      </c>
-      <c r="B12" s="37">
-        <v>0</v>
-      </c>
-      <c r="C12" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="39">
-        <v>-0.10299999999999999</v>
-      </c>
-      <c r="E12" s="40">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="F12" s="41">
-        <v>0.501</v>
-      </c>
-      <c r="H12" s="71">
-        <f t="shared" si="1"/>
-        <v>2.9999999999999888E-3</v>
-      </c>
-      <c r="I12" s="72">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J12" s="73">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="42">
-        <v>0</v>
-      </c>
-      <c r="B13" s="43">
-        <v>-0.1</v>
-      </c>
-      <c r="C13" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="44">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E13" s="45">
-        <v>-0.11799999999999999</v>
-      </c>
-      <c r="F13" s="46">
-        <v>0.499</v>
-      </c>
-      <c r="H13" s="71">
-        <f t="shared" si="1"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="I13" s="72">
-        <f t="shared" si="0"/>
-        <v>1.7999999999999988E-2</v>
-      </c>
-      <c r="J13" s="73">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-3</v>
-      </c>
-      <c r="K13" s="89">
-        <f>AVERAGE(H10:H13)</f>
-        <v>1.7749999999999995E-2</v>
-      </c>
-      <c r="L13" s="89">
-        <f t="shared" ref="L13:M13" si="4">AVERAGE(I10:I13)</f>
-        <v>1.1249999999999996E-2</v>
-      </c>
-      <c r="M13" s="89">
-        <f t="shared" si="4"/>
-        <v>3.7500000000000033E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
-        <v>0</v>
-      </c>
-      <c r="B14" s="48">
-        <v>0</v>
-      </c>
-      <c r="C14" s="48">
-        <v>0.45</v>
-      </c>
-      <c r="D14" s="49">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E14" s="50">
-        <v>-0.01</v>
-      </c>
-      <c r="F14" s="51">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="H14" s="71">
-        <f t="shared" si="1"/>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="I14" s="72">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="J14" s="73">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000062E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="52">
-        <v>0.1</v>
-      </c>
-      <c r="B15" s="53">
-        <v>0</v>
-      </c>
-      <c r="C15" s="53">
-        <v>0.45</v>
-      </c>
-      <c r="D15" s="52">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="E15" s="53">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="F15" s="54">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="H15" s="71">
-        <f t="shared" si="1"/>
-        <v>2.0000000000000018E-3</v>
-      </c>
-      <c r="I15" s="72">
-        <f t="shared" si="0"/>
-        <v>1.4E-2</v>
-      </c>
-      <c r="J15" s="73">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000018E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="52">
-        <v>-0.1</v>
-      </c>
-      <c r="B16" s="53">
-        <v>0</v>
-      </c>
-      <c r="C16" s="53">
-        <v>0.45</v>
-      </c>
-      <c r="D16" s="55">
-        <v>-9.9000000000000005E-2</v>
-      </c>
-      <c r="E16" s="56">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="F16" s="57">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="H16" s="71">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000009E-3</v>
-      </c>
-      <c r="I16" s="72">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J16" s="73">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000071E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="58">
-        <v>0</v>
-      </c>
-      <c r="B17" s="59">
-        <v>-0.1</v>
-      </c>
-      <c r="C17" s="59">
-        <v>0.45</v>
-      </c>
-      <c r="D17" s="60">
-        <v>0.02</v>
-      </c>
-      <c r="E17" s="61">
-        <v>-0.10299999999999999</v>
-      </c>
-      <c r="F17" s="62">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="H17" s="71">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="I17" s="72">
-        <f t="shared" si="0"/>
-        <v>2.9999999999999888E-3</v>
-      </c>
-      <c r="J17" s="73">
-        <f t="shared" si="0"/>
-        <v>9.000000000000008E-3</v>
-      </c>
-      <c r="K17" s="89">
-        <f>AVERAGE(H14:H17)</f>
-        <v>1.4749999999999999E-2</v>
-      </c>
-      <c r="L17" s="89">
-        <f t="shared" ref="L17:M17" si="5">AVERAGE(I14:I17)</f>
-        <v>8.4999999999999971E-3</v>
-      </c>
-      <c r="M17" s="89">
-        <f t="shared" si="5"/>
-        <v>6.5000000000000058E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="63">
-        <v>0</v>
-      </c>
-      <c r="B18" s="64">
-        <v>0</v>
-      </c>
-      <c r="C18" s="64">
-        <v>0.4</v>
-      </c>
-      <c r="D18" s="33">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E18" s="34">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="F18" s="35">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="H18" s="71">
-        <f t="shared" si="1"/>
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I18" s="72">
-        <f t="shared" si="1"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J18" s="73">
-        <f t="shared" si="1"/>
-        <v>9.000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="36">
-        <v>0.05</v>
-      </c>
-      <c r="B19" s="37">
-        <v>0</v>
-      </c>
-      <c r="C19" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="D19" s="36">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E19" s="37">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="F19" s="38">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="H19" s="71">
-        <f t="shared" si="1"/>
-        <v>1.2000000000000004E-2</v>
-      </c>
-      <c r="I19" s="72">
-        <f t="shared" si="1"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="J19" s="73">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000071E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="36">
-        <v>-0.05</v>
-      </c>
-      <c r="B20" s="37">
-        <v>0</v>
-      </c>
-      <c r="C20" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="D20" s="39">
-        <v>-4.1000000000000002E-2</v>
-      </c>
-      <c r="E20" s="40">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="F20" s="41">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="H20" s="71">
-        <f t="shared" si="1"/>
-        <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="I20" s="72">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J20" s="73">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000036E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="42">
-        <v>0</v>
-      </c>
-      <c r="B21" s="43">
-        <v>-0.05</v>
-      </c>
-      <c r="C21" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="D21" s="44">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E21" s="45">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-      <c r="F21" s="46">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="H21" s="71">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I21" s="72">
-        <f t="shared" si="1"/>
-        <v>2.0000000000000018E-3</v>
-      </c>
-      <c r="J21" s="73">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="K21" s="89">
-        <f>AVERAGE(H18:H21)</f>
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="L21" s="89">
-        <f t="shared" ref="L21:M21" si="6">AVERAGE(I18:I21)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="M21" s="89">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H26" s="48">
+        <f>AVERAGE(H2:H25)</f>
+        <v>1.5416666666666669E-2</v>
+      </c>
+      <c r="I26" s="49">
+        <f t="shared" ref="I26:J26" si="6">AVERAGE(I2:I25)</f>
+        <v>8.083333333333333E-3</v>
+      </c>
+      <c r="J26" s="50">
         <f t="shared" si="6"/>
-        <v>6.2500000000000056E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
-        <v>0</v>
-      </c>
-      <c r="B22" s="48">
-        <v>0</v>
-      </c>
-      <c r="C22" s="48">
-        <v>0.35</v>
-      </c>
-      <c r="D22" s="49">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E22" s="50">
-        <v>-2E-3</v>
-      </c>
-      <c r="F22" s="51">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="H22" s="71">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I22" s="72">
-        <f t="shared" si="1"/>
-        <v>2E-3</v>
-      </c>
-      <c r="J22" s="73">
-        <f t="shared" si="1"/>
-        <v>7.9999999999999516E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="52">
-        <v>0.05</v>
-      </c>
-      <c r="B23" s="53">
-        <v>0</v>
-      </c>
-      <c r="C23" s="53">
-        <v>0.35</v>
-      </c>
-      <c r="D23" s="52">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="E23" s="53">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="F23" s="54">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="H23" s="71">
-        <f t="shared" si="1"/>
-        <v>2.2999999999999993E-2</v>
-      </c>
-      <c r="I23" s="72">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J23" s="73">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="52">
-        <v>-0.05</v>
-      </c>
-      <c r="B24" s="53">
-        <v>0</v>
-      </c>
-      <c r="C24" s="53">
-        <v>0.35</v>
-      </c>
-      <c r="D24" s="55">
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="E24" s="56">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="F24" s="57">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="H24" s="71">
-        <f t="shared" si="1"/>
-        <v>1.8000000000000002E-2</v>
-      </c>
-      <c r="I24" s="72">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J24" s="73">
-        <f t="shared" si="1"/>
-        <v>1.100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="65">
-        <v>0</v>
-      </c>
-      <c r="B25" s="66">
-        <v>-0.05</v>
-      </c>
-      <c r="C25" s="66">
-        <v>0.35</v>
-      </c>
-      <c r="D25" s="65">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E25" s="66">
-        <v>-0.05</v>
-      </c>
-      <c r="F25" s="67">
-        <v>0.36</v>
-      </c>
-      <c r="H25" s="71">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I25" s="72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="73">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="K25" s="89">
-        <f>AVERAGE(H22:H25)</f>
-        <v>1.3249999999999998E-2</v>
-      </c>
-      <c r="L25" s="89">
-        <f t="shared" ref="L25:M25" si="7">AVERAGE(I22:I25)</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="M25" s="89">
-        <f t="shared" si="7"/>
-        <v>7.4999999999999928E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H26" s="83">
-        <f>AVERAGE(H2:H25)</f>
-        <v>1.5416666666666667E-2</v>
-      </c>
-      <c r="I26" s="84">
-        <f t="shared" ref="I26:J26" si="8">AVERAGE(I2:I25)</f>
-        <v>8.083333333333333E-3</v>
-      </c>
-      <c r="J26" s="85">
-        <f t="shared" si="8"/>
         <v>6.0833333333333364E-3</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
+    <sortCondition ref="C2:C25"/>
+  </sortState>
   <conditionalFormatting sqref="H2:I25 H26:J26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
